--- a/Data/study_records/data_ext.xlsx
+++ b/Data/study_records/data_ext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/ajwal_uoguelph_ca/Documents/Work/Dinner on Mars/Research_progress_review/Analysis/CEA_scoping/Data/study_records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="916" documentId="13_ncr:4000b_{A438CAF6-987A-3840-A0A7-2C4A98AA3B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9D010B1-AE28-AF41-8CF8-29B64228DFD3}"/>
+  <xr:revisionPtr revIDLastSave="928" documentId="13_ncr:4000b_{A438CAF6-987A-3840-A0A7-2C4A98AA3B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8728849-936B-8740-AF83-85ACABF9B508}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">savedrecs!$I$1:$I$630</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">savedrecs!$I$1:$K$630</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="2704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="2703">
   <si>
     <t>Authors</t>
   </si>
@@ -8143,16 +8143,13 @@
   </si>
   <si>
     <t>Theme 3</t>
-  </si>
-  <si>
-    <t>SOcio-economical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8517,11 +8514,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="8.83203125" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="3" customWidth="1"/>
@@ -8533,7 +8530,7 @@
     <col min="10" max="247" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14">
       <c r="A1" t="s">
         <v>2694</v>
       </c>
@@ -8568,7 +8565,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="345" hidden="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8601,7 +8598,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="358" hidden="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8631,7 +8628,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="319" hidden="1">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8661,7 +8658,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="196" hidden="1">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8691,7 +8688,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="293" hidden="1">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8727,7 +8724,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="266" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8760,7 +8757,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="319">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8790,7 +8787,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="266" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="266">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8820,7 +8817,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="345" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="345">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8850,7 +8847,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="409.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8880,7 +8877,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="293" hidden="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8910,7 +8907,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="280" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8943,7 +8940,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="409.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8973,7 +8970,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="319" hidden="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9003,7 +9000,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="332" hidden="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9033,7 +9030,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="306" hidden="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9063,7 +9060,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="358" hidden="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9093,7 +9090,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="293">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9123,7 +9120,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="252">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9153,7 +9150,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="319" hidden="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9183,7 +9180,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="397">
       <c r="A22">
         <v>22</v>
       </c>
@@ -9213,7 +9210,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="371" hidden="1">
       <c r="A23">
         <v>23</v>
       </c>
@@ -9243,7 +9240,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="280">
       <c r="A24">
         <v>24</v>
       </c>
@@ -9273,7 +9270,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="196" hidden="1">
       <c r="A25">
         <v>25</v>
       </c>
@@ -9303,7 +9300,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="280" hidden="1">
       <c r="A26">
         <v>26</v>
       </c>
@@ -9333,7 +9330,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="409.6">
       <c r="A27">
         <v>27</v>
       </c>
@@ -9363,7 +9360,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="319">
       <c r="A28">
         <v>28</v>
       </c>
@@ -9393,7 +9390,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="252">
       <c r="A29">
         <v>29</v>
       </c>
@@ -9426,7 +9423,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="306">
       <c r="A30">
         <v>30</v>
       </c>
@@ -9456,7 +9453,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="306">
       <c r="A31">
         <v>31</v>
       </c>
@@ -9486,7 +9483,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="224" hidden="1">
       <c r="A32">
         <v>32</v>
       </c>
@@ -9516,7 +9513,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="280">
       <c r="A33">
         <v>33</v>
       </c>
@@ -9546,7 +9543,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="196" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="196">
       <c r="A34">
         <v>34</v>
       </c>
@@ -9576,7 +9573,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="409.6">
       <c r="A35">
         <v>35</v>
       </c>
@@ -9606,7 +9603,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="409.6" hidden="1">
       <c r="A36">
         <v>36</v>
       </c>
@@ -9639,7 +9636,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="384">
       <c r="A37">
         <v>37</v>
       </c>
@@ -9669,7 +9666,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="345">
       <c r="A38">
         <v>38</v>
       </c>
@@ -9699,7 +9696,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="196" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="196">
       <c r="A39">
         <v>39</v>
       </c>
@@ -9729,7 +9726,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="358">
       <c r="A40">
         <v>40</v>
       </c>
@@ -9759,7 +9756,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:10" ht="196" hidden="1">
       <c r="A41">
         <v>41</v>
       </c>
@@ -9792,7 +9789,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:10" ht="140" hidden="1">
       <c r="A42">
         <v>42</v>
       </c>
@@ -9819,10 +9816,10 @@
         <v>http://dx.doi.org/10.1080/03066150.2022.2082287</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="409.6" hidden="1">
       <c r="A43">
         <v>43</v>
       </c>
@@ -9849,13 +9846,11 @@
         <v>http://dx.doi.org/10.3389/fsufs.2022.891256</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>2699</v>
-      </c>
-      <c r="J43" s="2" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="409.6">
       <c r="A44">
         <v>44</v>
       </c>
@@ -9885,7 +9880,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:10" ht="306" hidden="1">
       <c r="A45">
         <v>45</v>
       </c>
@@ -9918,7 +9913,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:10" ht="238">
       <c r="A46">
         <v>46</v>
       </c>
@@ -9948,7 +9943,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="358" hidden="1">
       <c r="A47">
         <v>47</v>
       </c>
@@ -9981,7 +9976,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" ht="306">
       <c r="A48">
         <v>48</v>
       </c>
@@ -10011,7 +10006,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="358">
       <c r="A49">
         <v>49</v>
       </c>
@@ -10041,7 +10036,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="238" hidden="1">
       <c r="A50">
         <v>50</v>
       </c>
@@ -10071,7 +10066,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="332" hidden="1">
       <c r="A51">
         <v>51</v>
       </c>
@@ -10101,7 +10096,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="345" hidden="1">
       <c r="A52">
         <v>52</v>
       </c>
@@ -10131,7 +10126,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="238" hidden="1">
       <c r="A53">
         <v>53</v>
       </c>
@@ -10161,7 +10156,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="319" hidden="1">
       <c r="A54">
         <v>54</v>
       </c>
@@ -10191,7 +10186,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="345">
       <c r="A55">
         <v>56</v>
       </c>
@@ -10224,7 +10219,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="280" hidden="1">
       <c r="A56">
         <v>57</v>
       </c>
@@ -10254,7 +10249,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="332" hidden="1">
       <c r="A57">
         <v>58</v>
       </c>
@@ -10287,7 +10282,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="358" hidden="1">
       <c r="A58">
         <v>59</v>
       </c>
@@ -10317,7 +10312,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="293" hidden="1">
       <c r="A59">
         <v>60</v>
       </c>
@@ -10350,7 +10345,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="306">
       <c r="A60">
         <v>61</v>
       </c>
@@ -10380,7 +10375,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="210" hidden="1">
       <c r="A61">
         <v>62</v>
       </c>
@@ -10413,7 +10408,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="409.6">
       <c r="A62">
         <v>63</v>
       </c>
@@ -10443,7 +10438,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="319" hidden="1">
       <c r="A63">
         <v>64</v>
       </c>
@@ -10473,7 +10468,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="397">
       <c r="A64">
         <v>65</v>
       </c>
@@ -10503,7 +10498,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:10" ht="345">
       <c r="A65">
         <v>66</v>
       </c>
@@ -10533,7 +10528,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:10" ht="409.6">
       <c r="A66">
         <v>67</v>
       </c>
@@ -10563,7 +10558,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:10" ht="266" hidden="1">
       <c r="A67">
         <v>68</v>
       </c>
@@ -10596,7 +10591,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:10" ht="409.6" hidden="1">
       <c r="A68">
         <v>69</v>
       </c>
@@ -10626,7 +10621,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:10" ht="293" hidden="1">
       <c r="A69">
         <v>70</v>
       </c>
@@ -10656,7 +10651,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:10" ht="397">
       <c r="A70">
         <v>71</v>
       </c>
@@ -10686,7 +10681,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:10" ht="345">
       <c r="A71">
         <v>72</v>
       </c>
@@ -10716,7 +10711,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:10" ht="293">
       <c r="A72">
         <v>73</v>
       </c>
@@ -10746,7 +10741,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:10" ht="409.6">
       <c r="A73">
         <v>74</v>
       </c>
@@ -10776,7 +10771,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:10" ht="409.6">
       <c r="A74">
         <v>75</v>
       </c>
@@ -10806,7 +10801,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:10" ht="409.6" hidden="1">
       <c r="A75">
         <v>76</v>
       </c>
@@ -10836,7 +10831,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:10" ht="238">
       <c r="A76">
         <v>77</v>
       </c>
@@ -10866,7 +10861,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:10" ht="252" hidden="1">
       <c r="A77">
         <v>78</v>
       </c>
@@ -10893,10 +10888,10 @@
         <v>http://dx.doi.org/10.47836/pjst.30.2.06</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="409.6">
       <c r="A78">
         <v>79</v>
       </c>
@@ -10926,7 +10921,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:10" ht="252">
       <c r="A79">
         <v>80</v>
       </c>
@@ -10959,7 +10954,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:10" ht="409.6" hidden="1">
       <c r="A80">
         <v>81</v>
       </c>
@@ -10992,7 +10987,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="409.6">
       <c r="A81">
         <v>82</v>
       </c>
@@ -11022,7 +11017,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="409.6">
       <c r="A82">
         <v>83</v>
       </c>
@@ -11052,7 +11047,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="397">
       <c r="A83">
         <v>84</v>
       </c>
@@ -11082,7 +11077,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="252" hidden="1">
       <c r="A84">
         <v>85</v>
       </c>
@@ -11112,7 +11107,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="319">
       <c r="A85">
         <v>86</v>
       </c>
@@ -11142,7 +11137,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="266" hidden="1">
       <c r="A86">
         <v>87</v>
       </c>
@@ -11172,7 +11167,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="397" hidden="1">
       <c r="A87">
         <v>88</v>
       </c>
@@ -11202,7 +11197,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="293" hidden="1">
       <c r="A88">
         <v>89</v>
       </c>
@@ -11232,7 +11227,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="182" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="182">
       <c r="A89">
         <v>90</v>
       </c>
@@ -11262,7 +11257,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="332">
       <c r="A90">
         <v>91</v>
       </c>
@@ -11292,7 +11287,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="266">
       <c r="A91">
         <v>92</v>
       </c>
@@ -11322,7 +11317,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="306" hidden="1">
       <c r="A92">
         <v>93</v>
       </c>
@@ -11355,7 +11350,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="252" hidden="1">
       <c r="A93">
         <v>94</v>
       </c>
@@ -11385,7 +11380,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="196" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="196">
       <c r="A94">
         <v>95</v>
       </c>
@@ -11415,7 +11410,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="266">
       <c r="A95">
         <v>96</v>
       </c>
@@ -11445,7 +11440,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" ht="306">
       <c r="A96">
         <v>97</v>
       </c>
@@ -11475,7 +11470,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11" ht="266" hidden="1">
       <c r="A97">
         <v>98</v>
       </c>
@@ -11505,7 +11500,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11" ht="409.6" hidden="1">
       <c r="A98">
         <v>99</v>
       </c>
@@ -11535,7 +11530,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="371" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11" ht="371">
       <c r="A99">
         <v>100</v>
       </c>
@@ -11565,7 +11560,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="384" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11" ht="384" hidden="1">
       <c r="A100">
         <v>101</v>
       </c>
@@ -11595,7 +11590,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11" ht="409.6">
       <c r="A101">
         <v>102</v>
       </c>
@@ -11625,7 +11620,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="384" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11" ht="384">
       <c r="A102">
         <v>103</v>
       </c>
@@ -11655,7 +11650,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11" ht="293" hidden="1">
       <c r="A103">
         <v>104</v>
       </c>
@@ -11688,7 +11683,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11" ht="319">
       <c r="A104">
         <v>105</v>
       </c>
@@ -11718,7 +11713,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11" ht="371" hidden="1">
       <c r="A105">
         <v>106</v>
       </c>
@@ -11748,7 +11743,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="98" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11" ht="98" hidden="1">
       <c r="A106">
         <v>107</v>
       </c>
@@ -11781,7 +11776,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11" ht="397" hidden="1">
       <c r="A107">
         <v>108</v>
       </c>
@@ -11811,7 +11806,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11" ht="306" hidden="1">
       <c r="A108">
         <v>109</v>
       </c>
@@ -11844,7 +11839,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:11" ht="293" hidden="1">
       <c r="A109">
         <v>110</v>
       </c>
@@ -11874,7 +11869,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="306" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:11" ht="306">
       <c r="A110">
         <v>111</v>
       </c>
@@ -11904,7 +11899,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="252" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:11" ht="252">
       <c r="A111">
         <v>112</v>
       </c>
@@ -11934,7 +11929,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:11" ht="358" hidden="1">
       <c r="A112">
         <v>113</v>
       </c>
@@ -11970,7 +11965,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="306" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:11" ht="306">
       <c r="A113">
         <v>114</v>
       </c>
@@ -12000,7 +11995,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:11" ht="224" hidden="1">
       <c r="A114">
         <v>115</v>
       </c>
@@ -12030,7 +12025,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="252" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:11" ht="252">
       <c r="A115">
         <v>116</v>
       </c>
@@ -12060,7 +12055,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="371" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:11" ht="371">
       <c r="A116">
         <v>117</v>
       </c>
@@ -12090,7 +12085,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:11" ht="238" hidden="1">
       <c r="A117">
         <v>118</v>
       </c>
@@ -12120,7 +12115,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="397" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:11" ht="397">
       <c r="A118">
         <v>119</v>
       </c>
@@ -12150,7 +12145,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:11" ht="319">
       <c r="A119">
         <v>120</v>
       </c>
@@ -12180,7 +12175,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:11" ht="266" hidden="1">
       <c r="A120">
         <v>121</v>
       </c>
@@ -12210,7 +12205,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:11" ht="210" hidden="1">
       <c r="A121">
         <v>122</v>
       </c>
@@ -12240,7 +12235,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="384" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:11" ht="384">
       <c r="A122">
         <v>123</v>
       </c>
@@ -12270,7 +12265,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:11" ht="168" hidden="1">
       <c r="A123">
         <v>124</v>
       </c>
@@ -12303,7 +12298,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:11" ht="238" hidden="1">
       <c r="A124">
         <v>125</v>
       </c>
@@ -12333,7 +12328,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:11" ht="252" hidden="1">
       <c r="A125">
         <v>126</v>
       </c>
@@ -12369,7 +12364,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:11" ht="319">
       <c r="A126">
         <v>127</v>
       </c>
@@ -12399,7 +12394,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:11" ht="238" hidden="1">
       <c r="A127">
         <v>128</v>
       </c>
@@ -12429,7 +12424,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="196" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:11" ht="196">
       <c r="A128">
         <v>129</v>
       </c>
@@ -12459,7 +12454,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:11" ht="409.6">
       <c r="A129">
         <v>130</v>
       </c>
@@ -12489,7 +12484,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="371" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" ht="371">
       <c r="A130">
         <v>131</v>
       </c>
@@ -12519,7 +12514,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="358" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:11" ht="358">
       <c r="A131">
         <v>132</v>
       </c>
@@ -12549,7 +12544,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:11" ht="266" hidden="1">
       <c r="A132">
         <v>133</v>
       </c>
@@ -12579,7 +12574,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="266" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:11" ht="266">
       <c r="A133">
         <v>134</v>
       </c>
@@ -12609,7 +12604,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:11" ht="182" hidden="1">
       <c r="A134">
         <v>135</v>
       </c>
@@ -12639,7 +12634,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="280" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" ht="280">
       <c r="A135">
         <v>136</v>
       </c>
@@ -12675,7 +12670,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" ht="224" hidden="1">
       <c r="A136">
         <v>137</v>
       </c>
@@ -12705,7 +12700,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" ht="182" hidden="1">
       <c r="A137">
         <v>138</v>
       </c>
@@ -12735,7 +12730,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" ht="409.6">
       <c r="A138">
         <v>139</v>
       </c>
@@ -12765,7 +12760,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="306" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" ht="306">
       <c r="A139">
         <v>140</v>
       </c>
@@ -12795,7 +12790,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="224" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" ht="224">
       <c r="A140">
         <v>141</v>
       </c>
@@ -12825,7 +12820,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" ht="409.6">
       <c r="A141">
         <v>142</v>
       </c>
@@ -12855,7 +12850,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" ht="409.6" hidden="1">
       <c r="A142">
         <v>143</v>
       </c>
@@ -12885,7 +12880,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" ht="409.6">
       <c r="A143">
         <v>144</v>
       </c>
@@ -12915,7 +12910,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" ht="293" hidden="1">
       <c r="A144">
         <v>145</v>
       </c>
@@ -12945,7 +12940,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:10" ht="238" hidden="1">
       <c r="A145">
         <v>146</v>
       </c>
@@ -12975,7 +12970,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:10" ht="358">
       <c r="A146">
         <v>147</v>
       </c>
@@ -13005,7 +13000,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="384" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:10" ht="384" hidden="1">
       <c r="A147">
         <v>148</v>
       </c>
@@ -13035,7 +13030,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:10" ht="358">
       <c r="A148">
         <v>149</v>
       </c>
@@ -13065,7 +13060,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:10" ht="371" hidden="1">
       <c r="A149">
         <v>150</v>
       </c>
@@ -13095,7 +13090,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:10" ht="371">
       <c r="A150">
         <v>151</v>
       </c>
@@ -13125,7 +13120,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:10" ht="280">
       <c r="A151">
         <v>152</v>
       </c>
@@ -13155,7 +13150,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:10" ht="280">
       <c r="A152">
         <v>153</v>
       </c>
@@ -13185,7 +13180,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:10" ht="293" hidden="1">
       <c r="A153">
         <v>154</v>
       </c>
@@ -13215,7 +13210,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:10" ht="252" hidden="1">
       <c r="A154">
         <v>155</v>
       </c>
@@ -13245,7 +13240,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:10" ht="293">
       <c r="A155">
         <v>156</v>
       </c>
@@ -13275,7 +13270,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:10" ht="280">
       <c r="A156">
         <v>157</v>
       </c>
@@ -13305,7 +13300,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:10" ht="252" hidden="1">
       <c r="A157">
         <v>158</v>
       </c>
@@ -13335,7 +13330,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:10" ht="306">
       <c r="A158">
         <v>159</v>
       </c>
@@ -13365,7 +13360,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:10" ht="224" hidden="1">
       <c r="A159">
         <v>160</v>
       </c>
@@ -13398,7 +13393,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:10" ht="397">
       <c r="A160">
         <v>161</v>
       </c>
@@ -13431,7 +13426,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:10" ht="293">
       <c r="A161">
         <v>162</v>
       </c>
@@ -13461,7 +13456,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:10" ht="238" hidden="1">
       <c r="A162">
         <v>163</v>
       </c>
@@ -13491,7 +13486,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:10" ht="280" hidden="1">
       <c r="A163">
         <v>164</v>
       </c>
@@ -13521,7 +13516,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:10" ht="409.6">
       <c r="A164">
         <v>165</v>
       </c>
@@ -13551,7 +13546,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:10" ht="293">
       <c r="A165">
         <v>166</v>
       </c>
@@ -13584,7 +13579,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:10" ht="238" hidden="1">
       <c r="A166">
         <v>167</v>
       </c>
@@ -13617,7 +13612,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:10" ht="210">
       <c r="A167">
         <v>168</v>
       </c>
@@ -13647,7 +13642,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:10" ht="306" hidden="1">
       <c r="A168">
         <v>169</v>
       </c>
@@ -13680,7 +13675,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:10" ht="384">
       <c r="A169">
         <v>170</v>
       </c>
@@ -13710,7 +13705,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:10" ht="319" hidden="1">
       <c r="A170">
         <v>171</v>
       </c>
@@ -13743,7 +13738,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:10" ht="332" hidden="1">
       <c r="A171">
         <v>172</v>
       </c>
@@ -13773,7 +13768,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:10" ht="238" hidden="1">
       <c r="A172">
         <v>173</v>
       </c>
@@ -13803,7 +13798,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:10" ht="293" hidden="1">
       <c r="A173">
         <v>174</v>
       </c>
@@ -13836,7 +13831,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:10" ht="252" hidden="1">
       <c r="A174">
         <v>176</v>
       </c>
@@ -13866,7 +13861,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:10" ht="332" hidden="1">
       <c r="A175">
         <v>177</v>
       </c>
@@ -13896,7 +13891,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:10" ht="332">
       <c r="A176">
         <v>178</v>
       </c>
@@ -13926,7 +13921,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:10" ht="358">
       <c r="A177">
         <v>179</v>
       </c>
@@ -13956,7 +13951,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:10" ht="210">
       <c r="A178">
         <v>180</v>
       </c>
@@ -13986,7 +13981,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:10" ht="371">
       <c r="A179">
         <v>181</v>
       </c>
@@ -14016,7 +14011,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:10" ht="332" hidden="1">
       <c r="A180">
         <v>182</v>
       </c>
@@ -14047,7 +14042,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:10" ht="319" hidden="1">
       <c r="A181">
         <v>183</v>
       </c>
@@ -14077,7 +14072,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:10" ht="280">
       <c r="A182">
         <v>184</v>
       </c>
@@ -14107,7 +14102,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:10" ht="196" hidden="1">
       <c r="A183">
         <v>185</v>
       </c>
@@ -14137,7 +14132,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:10" ht="266">
       <c r="A184">
         <v>186</v>
       </c>
@@ -14167,7 +14162,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:10" ht="224" hidden="1">
       <c r="A185">
         <v>187</v>
       </c>
@@ -14200,7 +14195,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:10" ht="280">
       <c r="A186">
         <v>188</v>
       </c>
@@ -14230,7 +14225,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:10" ht="319">
       <c r="A187">
         <v>189</v>
       </c>
@@ -14263,7 +14258,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:10" ht="306">
       <c r="A188">
         <v>190</v>
       </c>
@@ -14293,7 +14288,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:10" ht="224" hidden="1">
       <c r="A189">
         <v>191</v>
       </c>
@@ -14323,7 +14318,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:10" ht="306" hidden="1">
       <c r="A190">
         <v>192</v>
       </c>
@@ -14356,7 +14351,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:10" ht="409.6">
       <c r="A191">
         <v>193</v>
       </c>
@@ -14386,7 +14381,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:10" ht="345">
       <c r="A192">
         <v>194</v>
       </c>
@@ -14416,7 +14411,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:10" ht="345" hidden="1">
       <c r="A193">
         <v>195</v>
       </c>
@@ -14446,7 +14441,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:10" ht="224">
       <c r="A194">
         <v>196</v>
       </c>
@@ -14476,7 +14471,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:10" ht="371" hidden="1">
       <c r="A195">
         <v>197</v>
       </c>
@@ -14506,7 +14501,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:10" ht="358">
       <c r="A196">
         <v>198</v>
       </c>
@@ -14536,7 +14531,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:10" ht="238" hidden="1">
       <c r="A197">
         <v>199</v>
       </c>
@@ -14566,7 +14561,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:10" ht="293" hidden="1">
       <c r="A198">
         <v>200</v>
       </c>
@@ -14599,7 +14594,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:10" ht="196" hidden="1">
       <c r="A199">
         <v>201</v>
       </c>
@@ -14629,7 +14624,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:10" ht="182" hidden="1">
       <c r="A200">
         <v>203</v>
       </c>
@@ -14662,7 +14657,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:10" ht="371">
       <c r="A201">
         <v>204</v>
       </c>
@@ -14692,7 +14687,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:10" ht="409.6">
       <c r="A202">
         <v>205</v>
       </c>
@@ -14722,7 +14717,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:10" ht="409.6">
       <c r="A203">
         <v>206</v>
       </c>
@@ -14752,7 +14747,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:10" ht="306" hidden="1">
       <c r="A204">
         <v>207</v>
       </c>
@@ -14782,7 +14777,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:10" ht="293" hidden="1">
       <c r="A205">
         <v>208</v>
       </c>
@@ -14815,7 +14810,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:10" ht="371" hidden="1">
       <c r="A206">
         <v>209</v>
       </c>
@@ -14848,7 +14843,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:10" ht="409.6" hidden="1">
       <c r="A207">
         <v>210</v>
       </c>
@@ -14878,7 +14873,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:10" ht="280" hidden="1">
       <c r="A208">
         <v>211</v>
       </c>
@@ -14911,7 +14906,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="266" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:11" ht="266">
       <c r="A209">
         <v>212</v>
       </c>
@@ -14941,7 +14936,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:11" ht="345" hidden="1">
       <c r="A210">
         <v>213</v>
       </c>
@@ -14971,7 +14966,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="266" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:11" ht="266">
       <c r="A211">
         <v>214</v>
       </c>
@@ -15001,7 +14996,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:11" ht="306" hidden="1">
       <c r="A212">
         <v>215</v>
       </c>
@@ -15034,7 +15029,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="306" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:11" ht="306">
       <c r="A213">
         <v>216</v>
       </c>
@@ -15064,7 +15059,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="182" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:11" ht="182">
       <c r="A214">
         <v>217</v>
       </c>
@@ -15094,7 +15089,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:11" ht="196" hidden="1">
       <c r="A215">
         <v>218</v>
       </c>
@@ -15127,7 +15122,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="224" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:11" ht="224">
       <c r="A216">
         <v>219</v>
       </c>
@@ -15157,7 +15152,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="306" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:11" ht="306">
       <c r="A217">
         <v>220</v>
       </c>
@@ -15187,7 +15182,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:11" ht="409.6">
       <c r="A218">
         <v>221</v>
       </c>
@@ -15217,7 +15212,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:11" ht="168" hidden="1">
       <c r="A219">
         <v>222</v>
       </c>
@@ -15247,7 +15242,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="238" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:11" ht="238">
       <c r="A220">
         <v>223</v>
       </c>
@@ -15277,7 +15272,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:11" ht="238" hidden="1">
       <c r="A221">
         <v>224</v>
       </c>
@@ -15313,7 +15308,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="293" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:11" ht="293">
       <c r="A222">
         <v>225</v>
       </c>
@@ -15343,7 +15338,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:11" ht="306" hidden="1">
       <c r="A223">
         <v>226</v>
       </c>
@@ -15373,7 +15368,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:11" ht="409.6">
       <c r="A224">
         <v>227</v>
       </c>
@@ -15403,7 +15398,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:11" ht="409.6" hidden="1">
       <c r="A225">
         <v>228</v>
       </c>
@@ -15433,7 +15428,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:11" ht="319">
       <c r="A226">
         <v>229</v>
       </c>
@@ -15463,7 +15458,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="384" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:11" ht="384">
       <c r="A227">
         <v>230</v>
       </c>
@@ -15493,7 +15488,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="306" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:11" ht="306">
       <c r="A228">
         <v>231</v>
       </c>
@@ -15523,7 +15518,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:11" ht="409.6" hidden="1">
       <c r="A229">
         <v>232</v>
       </c>
@@ -15559,7 +15554,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="306" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:11" ht="306">
       <c r="A230">
         <v>233</v>
       </c>
@@ -15589,7 +15584,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:11" ht="319">
       <c r="A231">
         <v>234</v>
       </c>
@@ -15619,7 +15614,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="224" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:11" ht="224">
       <c r="A232">
         <v>235</v>
       </c>
@@ -15649,7 +15644,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:11" ht="332" hidden="1">
       <c r="A233">
         <v>236</v>
       </c>
@@ -15679,7 +15674,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:11" ht="280" hidden="1">
       <c r="A234">
         <v>237</v>
       </c>
@@ -15709,7 +15704,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:11" ht="409.6">
       <c r="A235">
         <v>238</v>
       </c>
@@ -15739,7 +15734,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="293" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:11" ht="293">
       <c r="A236">
         <v>239</v>
       </c>
@@ -15769,7 +15764,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:11" ht="293" hidden="1">
       <c r="A237">
         <v>240</v>
       </c>
@@ -15802,7 +15797,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="224" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:11" ht="224">
       <c r="A238">
         <v>241</v>
       </c>
@@ -15833,7 +15828,7 @@
       </c>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:11" ht="293" hidden="1">
       <c r="A239">
         <v>242</v>
       </c>
@@ -15863,7 +15858,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:11" ht="293" hidden="1">
       <c r="A240">
         <v>243</v>
       </c>
@@ -15893,7 +15888,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:10" ht="210">
       <c r="A241">
         <v>244</v>
       </c>
@@ -15923,7 +15918,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:10" ht="196" hidden="1">
       <c r="A242">
         <v>245</v>
       </c>
@@ -15953,7 +15948,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:10" ht="266" hidden="1">
       <c r="A243">
         <v>246</v>
       </c>
@@ -15983,7 +15978,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:10" ht="210" hidden="1">
       <c r="A244">
         <v>247</v>
       </c>
@@ -16013,7 +16008,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:10" ht="345" hidden="1">
       <c r="A245">
         <v>248</v>
       </c>
@@ -16046,7 +16041,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:10" ht="210" hidden="1">
       <c r="A246">
         <v>249</v>
       </c>
@@ -16076,7 +16071,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:10" ht="224" hidden="1">
       <c r="A247">
         <v>250</v>
       </c>
@@ -16106,7 +16101,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:10" ht="319">
       <c r="A248">
         <v>252</v>
       </c>
@@ -16136,7 +16131,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:10" ht="332">
       <c r="A249">
         <v>253</v>
       </c>
@@ -16166,7 +16161,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:10" ht="293">
       <c r="A250">
         <v>254</v>
       </c>
@@ -16196,7 +16191,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:10" ht="409.6">
       <c r="A251">
         <v>255</v>
       </c>
@@ -16226,7 +16221,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:10" ht="409.6">
       <c r="A252">
         <v>256</v>
       </c>
@@ -16257,7 +16252,7 @@
       </c>
       <c r="J252" s="2"/>
     </row>
-    <row r="253" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:10" ht="345">
       <c r="A253">
         <v>257</v>
       </c>
@@ -16287,7 +16282,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:10" ht="397" hidden="1">
       <c r="A254">
         <v>258</v>
       </c>
@@ -16317,7 +16312,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:10" ht="409.6">
       <c r="A255">
         <v>259</v>
       </c>
@@ -16347,7 +16342,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:10" ht="358">
       <c r="A256">
         <v>260</v>
       </c>
@@ -16377,7 +16372,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:10" ht="409.6">
       <c r="A257">
         <v>261</v>
       </c>
@@ -16407,7 +16402,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:10" ht="293">
       <c r="A258">
         <v>262</v>
       </c>
@@ -16437,7 +16432,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:10" ht="332">
       <c r="A259">
         <v>263</v>
       </c>
@@ -16467,7 +16462,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:10" ht="293">
       <c r="A260">
         <v>264</v>
       </c>
@@ -16497,7 +16492,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:10" ht="332">
       <c r="A261">
         <v>265</v>
       </c>
@@ -16527,7 +16522,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:10" ht="280" hidden="1">
       <c r="A262">
         <v>266</v>
       </c>
@@ -16560,7 +16555,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:10" ht="196" hidden="1">
       <c r="A263">
         <v>267</v>
       </c>
@@ -16590,7 +16585,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:10" ht="358" hidden="1">
       <c r="A264">
         <v>268</v>
       </c>
@@ -16620,7 +16615,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:10" ht="196" hidden="1">
       <c r="A265">
         <v>269</v>
       </c>
@@ -16653,7 +16648,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:10" ht="409.6" hidden="1">
       <c r="A266">
         <v>270</v>
       </c>
@@ -16683,7 +16678,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:10" ht="371">
       <c r="A267">
         <v>271</v>
       </c>
@@ -16713,7 +16708,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:10" ht="293">
       <c r="A268">
         <v>272</v>
       </c>
@@ -16746,7 +16741,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="126" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:10" ht="126">
       <c r="A269">
         <v>273</v>
       </c>
@@ -16775,7 +16770,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:10" ht="358">
       <c r="A270">
         <v>274</v>
       </c>
@@ -16808,7 +16803,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="306" hidden="1">
       <c r="A271">
         <v>275</v>
       </c>
@@ -16841,7 +16836,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:10" ht="293">
       <c r="A272">
         <v>276</v>
       </c>
@@ -16871,7 +16866,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:11" ht="266" hidden="1">
       <c r="A273">
         <v>277</v>
       </c>
@@ -16900,7 +16895,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:11" ht="397" hidden="1">
       <c r="A274">
         <v>278</v>
       </c>
@@ -16930,7 +16925,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:11" ht="409.6" hidden="1">
       <c r="A275">
         <v>279</v>
       </c>
@@ -16966,7 +16961,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="266" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:11" ht="266">
       <c r="A276">
         <v>281</v>
       </c>
@@ -16996,7 +16991,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:11" ht="280" hidden="1">
       <c r="A277">
         <v>282</v>
       </c>
@@ -17028,7 +17023,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:11" ht="319">
       <c r="A278">
         <v>283</v>
       </c>
@@ -17058,7 +17053,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="293" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:11" ht="293">
       <c r="A279">
         <v>284</v>
       </c>
@@ -17088,7 +17083,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:11" ht="319">
       <c r="A280">
         <v>285</v>
       </c>
@@ -17117,7 +17112,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="397" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:11" ht="397">
       <c r="A281">
         <v>286</v>
       </c>
@@ -17146,7 +17141,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="252" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:11" ht="252">
       <c r="A282">
         <v>287</v>
       </c>
@@ -17176,7 +17171,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:11" ht="266" hidden="1">
       <c r="A283">
         <v>288</v>
       </c>
@@ -17209,7 +17204,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="280" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:11" ht="280">
       <c r="A284">
         <v>289</v>
       </c>
@@ -17238,7 +17233,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="280" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:11" ht="280">
       <c r="A285">
         <v>290</v>
       </c>
@@ -17267,7 +17262,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="140" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:11" ht="140" hidden="1">
       <c r="A286">
         <v>291</v>
       </c>
@@ -17297,7 +17292,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="252" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:11" ht="252">
       <c r="A287">
         <v>292</v>
       </c>
@@ -17327,7 +17322,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="345" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:11" ht="345">
       <c r="A288">
         <v>293</v>
       </c>
@@ -17357,7 +17352,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:10" ht="384">
       <c r="A289">
         <v>294</v>
       </c>
@@ -17387,7 +17382,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:10" ht="409.6">
       <c r="A290">
         <v>295</v>
       </c>
@@ -17417,7 +17412,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:10" ht="358">
       <c r="A291">
         <v>296</v>
       </c>
@@ -17447,7 +17442,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:10" ht="196" hidden="1">
       <c r="A292">
         <v>297</v>
       </c>
@@ -17480,7 +17475,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:10" ht="319">
       <c r="A293">
         <v>298</v>
       </c>
@@ -17513,7 +17508,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:10" ht="196" hidden="1">
       <c r="A294">
         <v>299</v>
       </c>
@@ -17546,7 +17541,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:10" ht="280" hidden="1">
       <c r="A295">
         <v>301</v>
       </c>
@@ -17576,7 +17571,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:10" ht="293" hidden="1">
       <c r="A296">
         <v>302</v>
       </c>
@@ -17606,7 +17601,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:10" ht="252" hidden="1">
       <c r="A297">
         <v>303</v>
       </c>
@@ -17639,7 +17634,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:10" ht="252">
       <c r="A298">
         <v>304</v>
       </c>
@@ -17669,7 +17664,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:10" ht="266">
       <c r="A299">
         <v>305</v>
       </c>
@@ -17699,7 +17694,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:10" ht="280" hidden="1">
       <c r="A300">
         <v>306</v>
       </c>
@@ -17732,7 +17727,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:10" ht="238" hidden="1">
       <c r="A301">
         <v>307</v>
       </c>
@@ -17762,7 +17757,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:10" ht="384">
       <c r="A302">
         <v>308</v>
       </c>
@@ -17792,7 +17787,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:10" ht="409.6" hidden="1">
       <c r="A303">
         <v>309</v>
       </c>
@@ -17825,7 +17820,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:10" ht="345">
       <c r="A304">
         <v>310</v>
       </c>
@@ -17855,7 +17850,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:10" ht="224" hidden="1">
       <c r="A305">
         <v>311</v>
       </c>
@@ -17888,7 +17883,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:10" ht="238" hidden="1">
       <c r="A306">
         <v>312</v>
       </c>
@@ -17918,7 +17913,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:10" ht="266">
       <c r="A307">
         <v>313</v>
       </c>
@@ -17948,7 +17943,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:10" ht="280">
       <c r="A308">
         <v>314</v>
       </c>
@@ -17978,7 +17973,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:10" ht="306">
       <c r="A309">
         <v>315</v>
       </c>
@@ -18008,7 +18003,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:10" ht="409.6">
       <c r="A310">
         <v>316</v>
       </c>
@@ -18038,7 +18033,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:10" ht="224" hidden="1">
       <c r="A311">
         <v>317</v>
       </c>
@@ -18068,7 +18063,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:10" ht="306">
       <c r="A312">
         <v>318</v>
       </c>
@@ -18098,7 +18093,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:10" ht="306">
       <c r="A313">
         <v>319</v>
       </c>
@@ -18128,7 +18123,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:10" ht="154" hidden="1">
       <c r="A314">
         <v>320</v>
       </c>
@@ -18161,7 +18156,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:10" ht="266" hidden="1">
       <c r="A315">
         <v>321</v>
       </c>
@@ -18191,7 +18186,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:10" ht="384">
       <c r="A316">
         <v>322</v>
       </c>
@@ -18224,7 +18219,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:10" ht="345">
       <c r="A317">
         <v>323</v>
       </c>
@@ -18254,7 +18249,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:10" ht="319">
       <c r="A318">
         <v>324</v>
       </c>
@@ -18284,7 +18279,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:10" ht="371">
       <c r="A319">
         <v>325</v>
       </c>
@@ -18314,7 +18309,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:10" ht="371">
       <c r="A320">
         <v>326</v>
       </c>
@@ -18344,7 +18339,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:10" ht="409.6">
       <c r="A321">
         <v>327</v>
       </c>
@@ -18377,7 +18372,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:10" ht="306">
       <c r="A322">
         <v>328</v>
       </c>
@@ -18407,7 +18402,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:10" ht="238" hidden="1">
       <c r="A323">
         <v>329</v>
       </c>
@@ -18437,7 +18432,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:10" ht="306" hidden="1">
       <c r="A324">
         <v>330</v>
       </c>
@@ -18467,7 +18462,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:10" ht="224">
       <c r="A325">
         <v>331</v>
       </c>
@@ -18497,7 +18492,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:10" ht="358" hidden="1">
       <c r="A326">
         <v>332</v>
       </c>
@@ -18527,7 +18522,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:10" ht="266" hidden="1">
       <c r="A327">
         <v>333</v>
       </c>
@@ -18557,7 +18552,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:10" ht="293" hidden="1">
       <c r="A328">
         <v>334</v>
       </c>
@@ -18587,7 +18582,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:10" ht="319" hidden="1">
       <c r="A329">
         <v>335</v>
       </c>
@@ -18617,7 +18612,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:10" ht="252">
       <c r="A330">
         <v>336</v>
       </c>
@@ -18647,7 +18642,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:10" ht="266">
       <c r="A331">
         <v>337</v>
       </c>
@@ -18677,7 +18672,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:10" ht="154" hidden="1">
       <c r="A332">
         <v>338</v>
       </c>
@@ -18707,7 +18702,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:10" ht="266" hidden="1">
       <c r="A333">
         <v>339</v>
       </c>
@@ -18737,7 +18732,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:10" ht="293">
       <c r="A334">
         <v>340</v>
       </c>
@@ -18767,7 +18762,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:10" ht="409.6">
       <c r="A335">
         <v>341</v>
       </c>
@@ -18797,7 +18792,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:10" ht="384">
       <c r="A336">
         <v>342</v>
       </c>
@@ -18827,7 +18822,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:10" ht="358">
       <c r="A337">
         <v>343</v>
       </c>
@@ -18857,7 +18852,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:10" ht="409.6" hidden="1">
       <c r="A338">
         <v>344</v>
       </c>
@@ -18887,7 +18882,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="384" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:10" ht="384" hidden="1">
       <c r="A339">
         <v>346</v>
       </c>
@@ -18917,7 +18912,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:10" ht="196" hidden="1">
       <c r="A340">
         <v>347</v>
       </c>
@@ -18947,7 +18942,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:10" ht="332">
       <c r="A341">
         <v>348</v>
       </c>
@@ -18977,7 +18972,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:10" ht="371">
       <c r="A342">
         <v>350</v>
       </c>
@@ -19007,7 +19002,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:10" ht="252" hidden="1">
       <c r="A343">
         <v>351</v>
       </c>
@@ -19037,7 +19032,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:10" ht="182" hidden="1">
       <c r="A344">
         <v>352</v>
       </c>
@@ -19067,7 +19062,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:10" ht="306">
       <c r="A345">
         <v>353</v>
       </c>
@@ -19097,7 +19092,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:10" ht="266">
       <c r="A346">
         <v>354</v>
       </c>
@@ -19127,7 +19122,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:10" ht="332">
       <c r="A347">
         <v>355</v>
       </c>
@@ -19157,7 +19152,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:10" ht="266">
       <c r="A348">
         <v>356</v>
       </c>
@@ -19190,7 +19185,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:10" ht="332">
       <c r="A349">
         <v>357</v>
       </c>
@@ -19220,7 +19215,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:10" ht="280">
       <c r="A350">
         <v>358</v>
       </c>
@@ -19250,7 +19245,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:10" ht="409.6">
       <c r="A351">
         <v>360</v>
       </c>
@@ -19280,7 +19275,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:10" ht="345">
       <c r="A352">
         <v>361</v>
       </c>
@@ -19310,7 +19305,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="154" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:10" ht="154">
       <c r="A353">
         <v>362</v>
       </c>
@@ -19340,7 +19335,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:10" ht="358" hidden="1">
       <c r="A354">
         <v>363</v>
       </c>
@@ -19370,7 +19365,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:10" ht="409.6" hidden="1">
       <c r="A355">
         <v>364</v>
       </c>
@@ -19403,7 +19398,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:10" ht="319" hidden="1">
       <c r="A356">
         <v>366</v>
       </c>
@@ -19436,7 +19431,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:10" ht="409.6">
       <c r="A357">
         <v>367</v>
       </c>
@@ -19466,7 +19461,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:10" ht="358">
       <c r="A358">
         <v>368</v>
       </c>
@@ -19496,7 +19491,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:10" ht="293">
       <c r="A359">
         <v>370</v>
       </c>
@@ -19526,7 +19521,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:10" ht="319">
       <c r="A360">
         <v>371</v>
       </c>
@@ -19556,7 +19551,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:10" ht="293" hidden="1">
       <c r="A361">
         <v>372</v>
       </c>
@@ -19589,7 +19584,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:10" ht="345">
       <c r="A362">
         <v>373</v>
       </c>
@@ -19619,7 +19614,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:10" ht="280" hidden="1">
       <c r="A363">
         <v>375</v>
       </c>
@@ -19649,7 +19644,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:10" ht="252">
       <c r="A364">
         <v>377</v>
       </c>
@@ -19679,7 +19674,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:10" ht="210" hidden="1">
       <c r="A365">
         <v>378</v>
       </c>
@@ -19712,7 +19707,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:10" ht="182" hidden="1">
       <c r="A366">
         <v>380</v>
       </c>
@@ -19742,7 +19737,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:10" ht="196" hidden="1">
       <c r="A367">
         <v>381</v>
       </c>
@@ -19772,7 +19767,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:10" ht="409.6" hidden="1">
       <c r="A368">
         <v>382</v>
       </c>
@@ -19802,7 +19797,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:10" ht="409.6">
       <c r="A369">
         <v>383</v>
       </c>
@@ -19832,7 +19827,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:10" ht="266" hidden="1">
       <c r="A370">
         <v>384</v>
       </c>
@@ -19865,7 +19860,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:10" ht="319">
       <c r="A371">
         <v>385</v>
       </c>
@@ -19895,7 +19890,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:10" ht="409.6">
       <c r="A372">
         <v>386</v>
       </c>
@@ -19925,7 +19920,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:10" ht="210">
       <c r="A373">
         <v>387</v>
       </c>
@@ -19955,7 +19950,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:10" ht="280">
       <c r="A374">
         <v>389</v>
       </c>
@@ -19985,7 +19980,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:10" ht="168" hidden="1">
       <c r="A375">
         <v>390</v>
       </c>
@@ -20015,7 +20010,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:10" ht="332">
       <c r="A376">
         <v>391</v>
       </c>
@@ -20045,7 +20040,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:10" ht="409.6">
       <c r="A377">
         <v>392</v>
       </c>
@@ -20075,7 +20070,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:10" ht="238" hidden="1">
       <c r="A378">
         <v>393</v>
       </c>
@@ -20105,7 +20100,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:10" ht="358" hidden="1">
       <c r="A379">
         <v>394</v>
       </c>
@@ -20138,7 +20133,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:10" ht="319" hidden="1">
       <c r="A380">
         <v>395</v>
       </c>
@@ -20168,7 +20163,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:10" ht="332" hidden="1">
       <c r="A381">
         <v>396</v>
       </c>
@@ -20198,7 +20193,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:10" ht="293" hidden="1">
       <c r="A382">
         <v>397</v>
       </c>
@@ -20231,7 +20226,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:10" ht="224" hidden="1">
       <c r="A383">
         <v>398</v>
       </c>
@@ -20261,7 +20256,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:10" ht="252">
       <c r="A384">
         <v>400</v>
       </c>
@@ -20291,7 +20286,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:10" ht="280">
       <c r="A385">
         <v>401</v>
       </c>
@@ -20321,7 +20316,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:10" ht="358">
       <c r="A386">
         <v>402</v>
       </c>
@@ -20351,7 +20346,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:10" ht="397">
       <c r="A387">
         <v>403</v>
       </c>
@@ -20384,7 +20379,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:10" ht="266">
       <c r="A388">
         <v>404</v>
       </c>
@@ -20414,7 +20409,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:10" ht="319">
       <c r="A389">
         <v>405</v>
       </c>
@@ -20444,7 +20439,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:10" ht="345">
       <c r="A390">
         <v>406</v>
       </c>
@@ -20474,7 +20469,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:10" ht="345">
       <c r="A391">
         <v>407</v>
       </c>
@@ -20507,7 +20502,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:10" ht="409.6">
       <c r="A392">
         <v>408</v>
       </c>
@@ -20537,7 +20532,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:10" ht="266" hidden="1">
       <c r="A393">
         <v>409</v>
       </c>
@@ -20567,7 +20562,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:10" ht="332">
       <c r="A394">
         <v>411</v>
       </c>
@@ -20597,7 +20592,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:10" ht="358" hidden="1">
       <c r="A395">
         <v>412</v>
       </c>
@@ -20630,7 +20625,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:10" ht="332" hidden="1">
       <c r="A396">
         <v>413</v>
       </c>
@@ -20663,7 +20658,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:10" ht="332" hidden="1">
       <c r="A397">
         <v>414</v>
       </c>
@@ -20693,7 +20688,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:10" ht="345" hidden="1">
       <c r="A398">
         <v>416</v>
       </c>
@@ -20723,7 +20718,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:10" ht="210" hidden="1">
       <c r="A399">
         <v>417</v>
       </c>
@@ -20753,7 +20748,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:10" ht="409.6" hidden="1">
       <c r="A400">
         <v>418</v>
       </c>
@@ -20783,7 +20778,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:10" ht="266" hidden="1">
       <c r="A401">
         <v>419</v>
       </c>
@@ -20816,7 +20811,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:10" ht="306">
       <c r="A402">
         <v>420</v>
       </c>
@@ -20846,7 +20841,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:10" ht="358">
       <c r="A403">
         <v>421</v>
       </c>
@@ -20876,7 +20871,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:10" ht="371">
       <c r="A404">
         <v>422</v>
       </c>
@@ -20906,7 +20901,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:10" ht="319">
       <c r="A405">
         <v>423</v>
       </c>
@@ -20936,7 +20931,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:10" ht="358">
       <c r="A406">
         <v>424</v>
       </c>
@@ -20965,7 +20960,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:10" ht="358">
       <c r="A407">
         <v>425</v>
       </c>
@@ -20994,7 +20989,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="196" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:10" ht="196">
       <c r="A408">
         <v>426</v>
       </c>
@@ -21024,7 +21019,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:10" ht="224">
       <c r="A409">
         <v>427</v>
       </c>
@@ -21054,7 +21049,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:10" ht="252" hidden="1">
       <c r="A410">
         <v>428</v>
       </c>
@@ -21087,7 +21082,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:10" ht="280" hidden="1">
       <c r="A411">
         <v>429</v>
       </c>
@@ -21117,7 +21112,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:10" ht="238" hidden="1">
       <c r="A412">
         <v>430</v>
       </c>
@@ -21150,7 +21145,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:10" ht="409.6">
       <c r="A413">
         <v>431</v>
       </c>
@@ -21180,7 +21175,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:10" ht="371" hidden="1">
       <c r="A414">
         <v>432</v>
       </c>
@@ -21213,7 +21208,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:10" ht="319">
       <c r="A415">
         <v>433</v>
       </c>
@@ -21243,7 +21238,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:10" ht="332" hidden="1">
       <c r="A416">
         <v>434</v>
       </c>
@@ -21276,7 +21271,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="358" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:11" ht="358">
       <c r="A417">
         <v>435</v>
       </c>
@@ -21306,7 +21301,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:11" ht="409.6">
       <c r="A418">
         <v>436</v>
       </c>
@@ -21336,7 +21331,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:11" ht="196" hidden="1">
       <c r="A419">
         <v>437</v>
       </c>
@@ -21366,7 +21361,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="358" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:11" ht="358">
       <c r="A420">
         <v>438</v>
       </c>
@@ -21396,7 +21391,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="252" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:11" ht="252">
       <c r="A421">
         <v>439</v>
       </c>
@@ -21426,7 +21421,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:11" ht="238" hidden="1">
       <c r="A422">
         <v>440</v>
       </c>
@@ -21456,7 +21451,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="332" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:11" ht="332">
       <c r="A423">
         <v>441</v>
       </c>
@@ -21489,7 +21484,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:11" ht="319">
       <c r="A424">
         <v>442</v>
       </c>
@@ -21519,7 +21514,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:11" ht="266" hidden="1">
       <c r="A425">
         <v>443</v>
       </c>
@@ -21549,7 +21544,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:11" ht="409.6">
       <c r="A426">
         <v>444</v>
       </c>
@@ -21579,7 +21574,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:11" ht="238" hidden="1">
       <c r="A427">
         <v>445</v>
       </c>
@@ -21615,7 +21610,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:11" ht="358" hidden="1">
       <c r="A428">
         <v>446</v>
       </c>
@@ -21645,7 +21640,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:11" ht="409.6" hidden="1">
       <c r="A429">
         <v>447</v>
       </c>
@@ -21675,7 +21670,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:11" ht="154" hidden="1">
       <c r="A430">
         <v>448</v>
       </c>
@@ -21708,7 +21703,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:11" ht="319">
       <c r="A431">
         <v>449</v>
       </c>
@@ -21738,7 +21733,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:11" ht="280" hidden="1">
       <c r="A432">
         <v>450</v>
       </c>
@@ -21771,7 +21766,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:10" ht="319" hidden="1">
       <c r="A433">
         <v>451</v>
       </c>
@@ -21801,7 +21796,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:10" ht="306" hidden="1">
       <c r="A434">
         <v>452</v>
       </c>
@@ -21832,7 +21827,7 @@
       </c>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="1:10" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:10" ht="397" hidden="1">
       <c r="A435">
         <v>453</v>
       </c>
@@ -21865,7 +21860,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:10" ht="358" hidden="1">
       <c r="A436">
         <v>454</v>
       </c>
@@ -21898,7 +21893,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:10" ht="319" hidden="1">
       <c r="A437">
         <v>455</v>
       </c>
@@ -21928,7 +21923,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:10" ht="266">
       <c r="A438">
         <v>456</v>
       </c>
@@ -21958,7 +21953,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:10" ht="293" hidden="1">
       <c r="A439">
         <v>457</v>
       </c>
@@ -21988,7 +21983,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:10" ht="384">
       <c r="A440">
         <v>458</v>
       </c>
@@ -22018,7 +22013,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="441" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:10" ht="358" hidden="1">
       <c r="A441">
         <v>459</v>
       </c>
@@ -22051,7 +22046,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="442" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:10" ht="210">
       <c r="A442">
         <v>461</v>
       </c>
@@ -22081,7 +22076,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="443" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:10" ht="210">
       <c r="A443">
         <v>462</v>
       </c>
@@ -22111,7 +22106,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:10" ht="224">
       <c r="A444">
         <v>463</v>
       </c>
@@ -22141,7 +22136,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="445" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:10" ht="168" hidden="1">
       <c r="A445">
         <v>464</v>
       </c>
@@ -22171,7 +22166,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="446" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:10" ht="168" hidden="1">
       <c r="A446">
         <v>465</v>
       </c>
@@ -22201,7 +22196,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="447" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:10" ht="252" hidden="1">
       <c r="A447">
         <v>466</v>
       </c>
@@ -22234,7 +22229,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="448" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:10" ht="409.6" hidden="1">
       <c r="A448">
         <v>467</v>
       </c>
@@ -22264,7 +22259,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="449" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:10" ht="280">
       <c r="A449">
         <v>468</v>
       </c>
@@ -22294,7 +22289,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="450" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:10" ht="224" hidden="1">
       <c r="A450">
         <v>469</v>
       </c>
@@ -22324,7 +22319,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="451" spans="1:10" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:10" ht="168" hidden="1">
       <c r="A451">
         <v>470</v>
       </c>
@@ -22354,7 +22349,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="452" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:10" ht="358">
       <c r="A452">
         <v>471</v>
       </c>
@@ -22384,7 +22379,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:10" ht="252" hidden="1">
       <c r="A453">
         <v>472</v>
       </c>
@@ -22417,7 +22412,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="454" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:10" ht="293">
       <c r="A454">
         <v>474</v>
       </c>
@@ -22447,7 +22442,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="455" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:10" ht="409.6">
       <c r="A455">
         <v>475</v>
       </c>
@@ -22477,7 +22472,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="456" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:10" ht="332" hidden="1">
       <c r="A456">
         <v>476</v>
       </c>
@@ -22510,7 +22505,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="457" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:10" ht="266">
       <c r="A457">
         <v>477</v>
       </c>
@@ -22540,7 +22535,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="458" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:10" ht="345" hidden="1">
       <c r="A458">
         <v>479</v>
       </c>
@@ -22570,7 +22565,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="459" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:10" ht="306" hidden="1">
       <c r="A459">
         <v>480</v>
       </c>
@@ -22600,7 +22595,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="460" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:10" ht="224">
       <c r="A460">
         <v>481</v>
       </c>
@@ -22630,7 +22625,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="461" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:10" ht="397">
       <c r="A461">
         <v>482</v>
       </c>
@@ -22660,7 +22655,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:10" ht="196" hidden="1">
       <c r="A462">
         <v>484</v>
       </c>
@@ -22693,7 +22688,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="463" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:10" ht="224">
       <c r="A463">
         <v>485</v>
       </c>
@@ -22723,7 +22718,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="464" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:10" ht="306">
       <c r="A464">
         <v>486</v>
       </c>
@@ -22753,7 +22748,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="465" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:10" ht="319" hidden="1">
       <c r="A465">
         <v>489</v>
       </c>
@@ -22783,7 +22778,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:10" ht="280">
       <c r="A466">
         <v>490</v>
       </c>
@@ -22816,7 +22811,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="467" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:10" ht="210" hidden="1">
       <c r="A467">
         <v>491</v>
       </c>
@@ -22846,7 +22841,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="468" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:10" ht="252">
       <c r="A468">
         <v>492</v>
       </c>
@@ -22875,7 +22870,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="469" spans="1:10" ht="252" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:10" ht="252" hidden="1">
       <c r="A469">
         <v>493</v>
       </c>
@@ -22904,7 +22899,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="470" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:10" ht="224" hidden="1">
       <c r="A470">
         <v>494</v>
       </c>
@@ -22934,7 +22929,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:10" ht="332">
       <c r="A471">
         <v>495</v>
       </c>
@@ -22964,7 +22959,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="472" spans="1:10" ht="154" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:10" ht="154" hidden="1">
       <c r="A472">
         <v>496</v>
       </c>
@@ -22994,7 +22989,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="473" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:10" ht="345">
       <c r="A473">
         <v>497</v>
       </c>
@@ -23024,7 +23019,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="474" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:10" ht="345" hidden="1">
       <c r="A474">
         <v>498</v>
       </c>
@@ -23054,7 +23049,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:10" ht="332">
       <c r="A475">
         <v>499</v>
       </c>
@@ -23083,7 +23078,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="476" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:10" ht="384">
       <c r="A476">
         <v>500</v>
       </c>
@@ -23113,7 +23108,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="477" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:10" ht="266">
       <c r="A477">
         <v>502</v>
       </c>
@@ -23143,7 +23138,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="478" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:10" ht="332">
       <c r="A478">
         <v>503</v>
       </c>
@@ -23173,7 +23168,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="479" spans="1:10" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:10" ht="238" hidden="1">
       <c r="A479">
         <v>504</v>
       </c>
@@ -23203,7 +23198,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:10" ht="266">
       <c r="A480">
         <v>505</v>
       </c>
@@ -23233,7 +23228,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="481" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:10" ht="280" hidden="1">
       <c r="A481">
         <v>506</v>
       </c>
@@ -23266,7 +23261,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="482" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:10" ht="224" hidden="1">
       <c r="A482">
         <v>507</v>
       </c>
@@ -23296,7 +23291,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="483" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:10" ht="306" hidden="1">
       <c r="A483">
         <v>508</v>
       </c>
@@ -23329,7 +23324,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:10" ht="409.6">
       <c r="A484">
         <v>509</v>
       </c>
@@ -23359,7 +23354,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="485" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:10" ht="280" hidden="1">
       <c r="A485">
         <v>510</v>
       </c>
@@ -23389,7 +23384,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="486" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:10" ht="238">
       <c r="A486">
         <v>511</v>
       </c>
@@ -23419,7 +23414,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="487" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:10" ht="224" hidden="1">
       <c r="A487">
         <v>512</v>
       </c>
@@ -23449,7 +23444,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="488" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:10" ht="409.6" hidden="1">
       <c r="A488">
         <v>514</v>
       </c>
@@ -23479,7 +23474,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:10" ht="266" hidden="1">
       <c r="A489">
         <v>517</v>
       </c>
@@ -23509,7 +23504,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="490" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:10" ht="371">
       <c r="A490">
         <v>518</v>
       </c>
@@ -23539,7 +23534,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="491" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:10" ht="409.6">
       <c r="A491">
         <v>519</v>
       </c>
@@ -23569,7 +23564,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="492" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:10" ht="224" hidden="1">
       <c r="A492">
         <v>520</v>
       </c>
@@ -23602,7 +23597,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="493" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:10" ht="319" hidden="1">
       <c r="A493">
         <v>521</v>
       </c>
@@ -23635,7 +23630,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:10" ht="196" hidden="1">
       <c r="A494">
         <v>522</v>
       </c>
@@ -23668,7 +23663,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="495" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:10" ht="409.6">
       <c r="A495">
         <v>523</v>
       </c>
@@ -23698,7 +23693,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="496" spans="1:10" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:10" ht="371" hidden="1">
       <c r="A496">
         <v>524</v>
       </c>
@@ -23728,7 +23723,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="319" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:11" ht="319">
       <c r="A497">
         <v>525</v>
       </c>
@@ -23758,7 +23753,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:11" ht="238" hidden="1">
       <c r="A498">
         <v>526</v>
       </c>
@@ -23788,7 +23783,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="293" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:11" ht="293">
       <c r="A499">
         <v>530</v>
       </c>
@@ -23818,7 +23813,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="168" hidden="1" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:11" ht="168" hidden="1">
       <c r="A500">
         <v>531</v>
       </c>
@@ -23851,7 +23846,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:11" ht="266" hidden="1">
       <c r="A501">
         <v>532</v>
       </c>
@@ -23881,7 +23876,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:11" ht="409.6">
       <c r="A502">
         <v>533</v>
       </c>
@@ -23911,7 +23906,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:11" ht="293" hidden="1">
       <c r="A503">
         <v>535</v>
       </c>
@@ -23941,7 +23936,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="332" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:11" ht="332">
       <c r="A504">
         <v>536</v>
       </c>
@@ -23971,7 +23966,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="238" hidden="1" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:11" ht="238" hidden="1">
       <c r="A505">
         <v>538</v>
       </c>
@@ -24000,7 +23995,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:11" ht="196" hidden="1">
       <c r="A506">
         <v>540</v>
       </c>
@@ -24030,7 +24025,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:11" ht="293" hidden="1">
       <c r="A507">
         <v>541</v>
       </c>
@@ -24059,7 +24054,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:11" ht="196" hidden="1">
       <c r="A508">
         <v>542</v>
       </c>
@@ -24089,7 +24084,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="397" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:11" ht="397">
       <c r="A509">
         <v>543</v>
       </c>
@@ -24119,7 +24114,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:11" ht="280" hidden="1">
       <c r="A510">
         <v>544</v>
       </c>
@@ -24149,7 +24144,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:11" ht="224" hidden="1">
       <c r="A511">
         <v>545</v>
       </c>
@@ -24182,7 +24177,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:11" ht="293" hidden="1">
       <c r="A512">
         <v>546</v>
       </c>
@@ -24218,7 +24213,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="513" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:10" ht="358" hidden="1">
       <c r="A513">
         <v>547</v>
       </c>
@@ -24248,7 +24243,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:10" ht="196" hidden="1">
       <c r="A514">
         <v>548</v>
       </c>
@@ -24281,7 +24276,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:10" ht="345" hidden="1">
       <c r="A515">
         <v>550</v>
       </c>
@@ -24311,7 +24306,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:10" ht="384">
       <c r="A516">
         <v>551</v>
       </c>
@@ -24341,7 +24336,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:10" ht="293">
       <c r="A517">
         <v>552</v>
       </c>
@@ -24371,7 +24366,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:10" ht="252">
       <c r="A518">
         <v>553</v>
       </c>
@@ -24404,7 +24399,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:10" ht="332" hidden="1">
       <c r="A519">
         <v>554</v>
       </c>
@@ -24434,7 +24429,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:10" ht="409.6">
       <c r="A520">
         <v>555</v>
       </c>
@@ -24464,7 +24459,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="358" hidden="1" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:10" ht="358" hidden="1">
       <c r="A521">
         <v>556</v>
       </c>
@@ -24494,7 +24489,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:10" ht="210">
       <c r="A522">
         <v>558</v>
       </c>
@@ -24523,7 +24518,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:10" ht="224">
       <c r="A523">
         <v>559</v>
       </c>
@@ -24553,7 +24548,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="524" spans="1:10" ht="319" hidden="1" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:10" ht="319" hidden="1">
       <c r="A524">
         <v>560</v>
       </c>
@@ -24583,7 +24578,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:10" ht="319">
       <c r="A525">
         <v>561</v>
       </c>
@@ -24613,7 +24608,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:10" ht="397" hidden="1">
       <c r="A526">
         <v>562</v>
       </c>
@@ -24643,7 +24638,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:10" ht="319">
       <c r="A527">
         <v>563</v>
       </c>
@@ -24673,7 +24668,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:10" ht="293" hidden="1">
       <c r="A528">
         <v>564</v>
       </c>
@@ -24706,7 +24701,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:10" ht="319">
       <c r="A529">
         <v>566</v>
       </c>
@@ -24736,7 +24731,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:10" ht="397">
       <c r="A530">
         <v>567</v>
       </c>
@@ -24766,7 +24761,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:10" ht="397" hidden="1">
       <c r="A531">
         <v>568</v>
       </c>
@@ -24796,7 +24791,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:10" ht="397">
       <c r="A532">
         <v>569</v>
       </c>
@@ -24826,7 +24821,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:10" ht="397">
       <c r="A533">
         <v>570</v>
       </c>
@@ -24856,7 +24851,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:10" ht="319">
       <c r="A534">
         <v>571</v>
       </c>
@@ -24886,7 +24881,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="535" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:10" ht="293" hidden="1">
       <c r="A535">
         <v>573</v>
       </c>
@@ -24916,7 +24911,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:10" ht="397">
       <c r="A536">
         <v>574</v>
       </c>
@@ -24946,7 +24941,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:10" ht="210" hidden="1">
       <c r="A537">
         <v>575</v>
       </c>
@@ -24979,7 +24974,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:10" ht="397">
       <c r="A538">
         <v>576</v>
       </c>
@@ -25009,7 +25004,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:10" ht="280" hidden="1">
       <c r="A539">
         <v>577</v>
       </c>
@@ -25039,7 +25034,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:10" ht="409.6">
       <c r="A540">
         <v>578</v>
       </c>
@@ -25069,7 +25064,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:10" ht="409.6">
       <c r="A541">
         <v>579</v>
       </c>
@@ -25099,7 +25094,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:10" ht="345">
       <c r="A542">
         <v>580</v>
       </c>
@@ -25129,7 +25124,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:10" ht="384">
       <c r="A543">
         <v>581</v>
       </c>
@@ -25159,7 +25154,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:10" ht="409.6" hidden="1">
       <c r="A544">
         <v>582</v>
       </c>
@@ -25189,7 +25184,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="384" hidden="1" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:10" ht="384" hidden="1">
       <c r="A545">
         <v>583</v>
       </c>
@@ -25218,7 +25213,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:10" ht="384">
       <c r="A546">
         <v>587</v>
       </c>
@@ -25248,7 +25243,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="196" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:10" ht="196">
       <c r="A547">
         <v>588</v>
       </c>
@@ -25278,7 +25273,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="371" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:10" ht="371">
       <c r="A548">
         <v>589</v>
       </c>
@@ -25308,7 +25303,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:10" ht="238">
       <c r="A549">
         <v>592</v>
       </c>
@@ -25338,7 +25333,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="550" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:10" ht="210" hidden="1">
       <c r="A550">
         <v>593</v>
       </c>
@@ -25368,7 +25363,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:10" ht="266" hidden="1">
       <c r="A551">
         <v>594</v>
       </c>
@@ -25398,7 +25393,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:10" ht="252">
       <c r="A552">
         <v>596</v>
       </c>
@@ -25428,7 +25423,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:10" ht="182" hidden="1">
       <c r="A553">
         <v>597</v>
       </c>
@@ -25458,7 +25453,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="554" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:10" ht="306" hidden="1">
       <c r="A554">
         <v>598</v>
       </c>
@@ -25491,7 +25486,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:10" ht="319">
       <c r="A555">
         <v>599</v>
       </c>
@@ -25521,7 +25516,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:10" ht="409.6">
       <c r="A556">
         <v>600</v>
       </c>
@@ -25551,7 +25546,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="224" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:10" ht="224">
       <c r="A557">
         <v>601</v>
       </c>
@@ -25581,7 +25576,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:10" ht="332">
       <c r="A558">
         <v>602</v>
       </c>
@@ -25611,7 +25606,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:10" ht="384">
       <c r="A559">
         <v>603</v>
       </c>
@@ -25641,7 +25636,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:10" ht="280" hidden="1">
       <c r="A560">
         <v>604</v>
       </c>
@@ -25671,7 +25666,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:10" ht="252">
       <c r="A561">
         <v>605</v>
       </c>
@@ -25701,7 +25696,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:10" ht="319">
       <c r="A562">
         <v>606</v>
       </c>
@@ -25731,7 +25726,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="210" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:10" ht="210">
       <c r="A563">
         <v>607</v>
       </c>
@@ -25761,7 +25756,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:10" ht="252">
       <c r="A564">
         <v>608</v>
       </c>
@@ -25791,7 +25786,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:10" ht="140" hidden="1">
       <c r="A565">
         <v>609</v>
       </c>
@@ -25821,7 +25816,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="345" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:10" ht="345">
       <c r="A566">
         <v>612</v>
       </c>
@@ -25851,7 +25846,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:10" ht="306" hidden="1">
       <c r="A567">
         <v>613</v>
       </c>
@@ -25881,7 +25876,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:10" ht="319">
       <c r="A568">
         <v>614</v>
       </c>
@@ -25911,7 +25906,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="569" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:10" ht="306">
       <c r="A569">
         <v>615</v>
       </c>
@@ -25941,7 +25936,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:10" ht="266" hidden="1">
       <c r="A570">
         <v>616</v>
       </c>
@@ -25974,7 +25969,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="140" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:10" ht="140">
       <c r="A571">
         <v>617</v>
       </c>
@@ -26004,7 +25999,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:10" ht="266">
       <c r="A572">
         <v>619</v>
       </c>
@@ -26034,7 +26029,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="573" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:10" ht="384">
       <c r="A573">
         <v>621</v>
       </c>
@@ -26064,7 +26059,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:10" ht="409.6" hidden="1">
       <c r="A574">
         <v>622</v>
       </c>
@@ -26094,7 +26089,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="345" hidden="1" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:10" ht="345" hidden="1">
       <c r="A575">
         <v>623</v>
       </c>
@@ -26124,7 +26119,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="238" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:10" ht="238">
       <c r="A576">
         <v>624</v>
       </c>
@@ -26157,7 +26152,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="397" hidden="1" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:10" ht="397" hidden="1">
       <c r="A577">
         <v>625</v>
       </c>
@@ -26187,7 +26182,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:10" ht="293" hidden="1">
       <c r="A578">
         <v>626</v>
       </c>
@@ -26217,7 +26212,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:10" ht="319">
       <c r="A579">
         <v>627</v>
       </c>
@@ -26247,7 +26242,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:10" ht="280" hidden="1">
       <c r="A580">
         <v>628</v>
       </c>
@@ -26277,7 +26272,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:10" ht="409.6" hidden="1">
       <c r="A581">
         <v>629</v>
       </c>
@@ -26307,7 +26302,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:10" ht="266" hidden="1">
       <c r="A582">
         <v>630</v>
       </c>
@@ -26337,7 +26332,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:10" ht="397">
       <c r="A583">
         <v>631</v>
       </c>
@@ -26367,7 +26362,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:10" ht="384">
       <c r="A584">
         <v>632</v>
       </c>
@@ -26397,7 +26392,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="182" hidden="1" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:10" ht="182" hidden="1">
       <c r="A585">
         <v>633</v>
       </c>
@@ -26427,7 +26422,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:10" ht="293" hidden="1">
       <c r="A586">
         <v>634</v>
       </c>
@@ -26457,7 +26452,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:10" ht="210" hidden="1">
       <c r="A587">
         <v>635</v>
       </c>
@@ -26487,7 +26482,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="252" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:10" ht="252">
       <c r="A588">
         <v>636</v>
       </c>
@@ -26517,7 +26512,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:10" ht="266" hidden="1">
       <c r="A589">
         <v>637</v>
       </c>
@@ -26550,7 +26545,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:10" ht="280">
       <c r="A590">
         <v>638</v>
       </c>
@@ -26580,7 +26575,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="306" hidden="1" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:10" ht="306" hidden="1">
       <c r="A591">
         <v>639</v>
       </c>
@@ -26613,7 +26608,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="592" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:10" ht="266" hidden="1">
       <c r="A592">
         <v>640</v>
       </c>
@@ -26643,7 +26638,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:10" ht="210" hidden="1">
       <c r="A593">
         <v>641</v>
       </c>
@@ -26673,7 +26668,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:10" ht="397">
       <c r="A594">
         <v>642</v>
       </c>
@@ -26704,7 +26699,7 @@
       </c>
       <c r="J594" s="2"/>
     </row>
-    <row r="595" spans="1:10" ht="384" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:10" ht="384">
       <c r="A595">
         <v>643</v>
       </c>
@@ -26734,7 +26729,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="596" spans="1:10" ht="306" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:10" ht="306">
       <c r="A596">
         <v>644</v>
       </c>
@@ -26764,7 +26759,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:10" ht="332">
       <c r="A597">
         <v>645</v>
       </c>
@@ -26794,7 +26789,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:10" ht="210" hidden="1">
       <c r="A598">
         <v>646</v>
       </c>
@@ -26824,7 +26819,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="384" hidden="1" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:10" ht="384" hidden="1">
       <c r="A599">
         <v>647</v>
       </c>
@@ -26857,7 +26852,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="332" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:10" ht="332">
       <c r="A600">
         <v>648</v>
       </c>
@@ -26887,7 +26882,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:10" ht="319">
       <c r="A601">
         <v>649</v>
       </c>
@@ -26917,7 +26912,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:10" ht="266" hidden="1">
       <c r="A602">
         <v>651</v>
       </c>
@@ -26947,7 +26942,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="603" spans="1:10" ht="196" hidden="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:10" ht="196" hidden="1">
       <c r="A603">
         <v>652</v>
       </c>
@@ -26977,7 +26972,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:10" ht="332" hidden="1">
       <c r="A604">
         <v>654</v>
       </c>
@@ -27010,7 +27005,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="266" hidden="1" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:10" ht="266" hidden="1">
       <c r="A605">
         <v>655</v>
       </c>
@@ -27040,7 +27035,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:10" ht="280" hidden="1">
       <c r="A606">
         <v>656</v>
       </c>
@@ -27070,7 +27065,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="607" spans="1:10" ht="319" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:10" ht="319">
       <c r="A607">
         <v>657</v>
       </c>
@@ -27100,7 +27095,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="371" hidden="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:10" ht="371" hidden="1">
       <c r="A608">
         <v>658</v>
       </c>
@@ -27130,7 +27125,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:10" ht="224" hidden="1">
       <c r="A609">
         <v>661</v>
       </c>
@@ -27160,7 +27155,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:10" ht="293">
       <c r="A610">
         <v>662</v>
       </c>
@@ -27190,7 +27185,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="293" hidden="1" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:10" ht="293" hidden="1">
       <c r="A611">
         <v>663</v>
       </c>
@@ -27222,7 +27217,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="224" hidden="1" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:10" ht="224" hidden="1">
       <c r="A612">
         <v>664</v>
       </c>
@@ -27252,7 +27247,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:10" ht="280" hidden="1">
       <c r="A613">
         <v>665</v>
       </c>
@@ -27282,7 +27277,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="614" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:10" ht="293">
       <c r="A614">
         <v>666</v>
       </c>
@@ -27312,7 +27307,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="210" hidden="1" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:10" ht="210" hidden="1">
       <c r="A615">
         <v>667</v>
       </c>
@@ -27345,7 +27340,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="358" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:10" ht="358">
       <c r="A616">
         <v>668</v>
       </c>
@@ -27375,7 +27370,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="397" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:10" ht="397">
       <c r="A617">
         <v>669</v>
       </c>
@@ -27405,7 +27400,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="409.6" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:10" ht="409.6">
       <c r="A618">
         <v>670</v>
       </c>
@@ -27434,7 +27429,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="140" hidden="1" x14ac:dyDescent="0.15">
+    <row r="619" spans="1:10" ht="140" hidden="1">
       <c r="A619">
         <v>672</v>
       </c>
@@ -27467,7 +27462,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="266" x14ac:dyDescent="0.15">
+    <row r="620" spans="1:10" ht="266">
       <c r="A620">
         <v>673</v>
       </c>
@@ -27497,7 +27492,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="280" hidden="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:10" ht="280" hidden="1">
       <c r="A621">
         <v>675</v>
       </c>
@@ -27527,7 +27522,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="622" spans="1:10" ht="293" x14ac:dyDescent="0.15">
+    <row r="622" spans="1:10" ht="293">
       <c r="A622">
         <v>676</v>
       </c>
@@ -27557,7 +27552,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="280" x14ac:dyDescent="0.15">
+    <row r="623" spans="1:10" ht="280">
       <c r="A623">
         <v>677</v>
       </c>
@@ -27587,7 +27582,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="196" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:10" ht="196">
       <c r="A624">
         <v>678</v>
       </c>
@@ -27617,7 +27612,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="266" x14ac:dyDescent="0.15">
+    <row r="625" spans="1:11" ht="266">
       <c r="A625">
         <v>679</v>
       </c>
@@ -27647,7 +27642,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="409.6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="626" spans="1:11" ht="409.6" hidden="1">
       <c r="A626">
         <v>682</v>
       </c>
@@ -27683,7 +27678,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="332" hidden="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:11" ht="332" hidden="1">
       <c r="A627">
         <v>683</v>
       </c>
@@ -27719,7 +27714,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="332" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:11" ht="332">
       <c r="A628">
         <v>684</v>
       </c>
@@ -27748,7 +27743,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="182" x14ac:dyDescent="0.15">
+    <row r="629" spans="1:11" ht="182">
       <c r="A629">
         <v>685</v>
       </c>
@@ -27778,7 +27773,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="293" x14ac:dyDescent="0.15">
+    <row r="630" spans="1:11" ht="293">
       <c r="A630">
         <v>686</v>
       </c>
@@ -27808,7 +27803,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I630" xr:uid="{021E35DA-0788-324D-9758-EAF0D7D63A38}">
+  <autoFilter ref="I1:K630" xr:uid="{C27E9930-7E61-124C-AF76-77E110225134}">
     <filterColumn colId="0">
       <filters>
         <filter val="Biological"/>
@@ -27842,32 +27837,32 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>2695</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>2696</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2697</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>2698</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
         <v>2699</v>
       </c>

--- a/Data/study_records/data_ext.xlsx
+++ b/Data/study_records/data_ext.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoguelphca-my.sharepoint.com/personal/ajwal_uoguelph_ca/Documents/Work/Dinner on Mars/Research_progress_review/Analysis/CEA_scoping/Data/study_records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1450" documentId="13_ncr:4000b_{A438CAF6-987A-3840-A0A7-2C4A98AA3B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83956975-2622-4D4A-BB28-699C2DBFC5F4}"/>
+  <xr:revisionPtr revIDLastSave="1451" documentId="13_ncr:4000b_{A438CAF6-987A-3840-A0A7-2C4A98AA3B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00993D30-68A9-564C-8110-43EC7805B5B5}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32000" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="savedrecs" sheetId="1" r:id="rId1"/>
@@ -7894,7 +7894,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -8256,14 +8256,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D600" sqref="D600"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
@@ -8279,7 +8278,7 @@
     <col min="13" max="247" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14">
+    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2605</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="409.6">
+    <row r="2" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8350,7 +8349,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="409.6">
+    <row r="3" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="358" hidden="1">
+    <row r="4" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6" hidden="1">
+    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="409.6" hidden="1">
+    <row r="6" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -8479,7 +8478,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="409.6" hidden="1">
+    <row r="7" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -8512,7 +8511,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="409.6" hidden="1">
+    <row r="8" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -8545,7 +8544,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="409.6" hidden="1">
+    <row r="9" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="409.6" hidden="1">
+    <row r="10" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>10</v>
       </c>
@@ -8611,7 +8610,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="409.6" hidden="1">
+    <row r="11" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>11</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="409.6" hidden="1">
+    <row r="12" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>12</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="409.6" hidden="1">
+    <row r="13" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>13</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="409.6" hidden="1">
+    <row r="14" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -8737,7 +8736,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="409.6" hidden="1">
+    <row r="15" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>15</v>
       </c>
@@ -8767,7 +8766,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="409.6">
+    <row r="16" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="409.6" hidden="1">
+    <row r="17" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>17</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="409.6" hidden="1">
+    <row r="18" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>18</v>
       </c>
@@ -8860,7 +8859,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="409.6" hidden="1">
+    <row r="19" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>19</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="409.6">
+    <row r="20" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="409.6" hidden="1">
+    <row r="21" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>22</v>
       </c>
@@ -8956,7 +8955,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="409.6" hidden="1">
+    <row r="22" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>24</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="345" hidden="1">
+    <row r="23" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>25</v>
       </c>
@@ -9019,7 +9018,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="409.6">
+    <row r="24" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>26</v>
       </c>
@@ -9049,7 +9048,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="409.6" hidden="1">
+    <row r="25" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>27</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="409.6" hidden="1">
+    <row r="26" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>28</v>
       </c>
@@ -9115,7 +9114,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="409.6" hidden="1">
+    <row r="27" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>29</v>
       </c>
@@ -9151,7 +9150,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="409.6" hidden="1">
+    <row r="28" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>30</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="409.6" hidden="1">
+    <row r="29" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>31</v>
       </c>
@@ -9217,7 +9216,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="384">
+    <row r="30" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>32</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="409.6" hidden="1">
+    <row r="31" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>33</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="345" hidden="1">
+    <row r="32" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>34</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="409.6" hidden="1">
+    <row r="33" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>35</v>
       </c>
@@ -9346,7 +9345,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="409.6">
+    <row r="34" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>36</v>
       </c>
@@ -9379,7 +9378,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="409.6" hidden="1">
+    <row r="35" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>37</v>
       </c>
@@ -9412,7 +9411,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="409.6" hidden="1">
+    <row r="36" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>38</v>
       </c>
@@ -9445,7 +9444,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="319" hidden="1">
+    <row r="37" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>39</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="409.6" hidden="1">
+    <row r="38" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>40</v>
       </c>
@@ -9511,7 +9510,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="332" hidden="1">
+    <row r="39" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>41</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="238" hidden="1">
+    <row r="40" spans="1:12" ht="238" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>42</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="409.6" hidden="1">
+    <row r="41" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>43</v>
       </c>
@@ -9605,7 +9604,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:12" ht="409.6" hidden="1">
+    <row r="42" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>44</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="409.6" hidden="1">
+    <row r="43" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>45</v>
       </c>
@@ -9674,7 +9673,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="409.6" hidden="1">
+    <row r="44" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>46</v>
       </c>
@@ -9707,7 +9706,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="409.6" hidden="1">
+    <row r="45" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>47</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="409.6" hidden="1">
+    <row r="46" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>48</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="409.6" hidden="1">
+    <row r="47" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>49</v>
       </c>
@@ -9806,7 +9805,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="409.6" hidden="1">
+    <row r="48" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>50</v>
       </c>
@@ -9836,7 +9835,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="409.6">
+    <row r="49" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>51</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="409.6" hidden="1">
+    <row r="50" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>52</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="397">
+    <row r="51" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>53</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="409.6">
+    <row r="52" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>54</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="409.6" hidden="1">
+    <row r="53" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>56</v>
       </c>
@@ -9992,7 +9991,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="409.6" hidden="1">
+    <row r="54" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>57</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="409.6" hidden="1">
+    <row r="55" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>58</v>
       </c>
@@ -10055,7 +10054,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="409.6">
+    <row r="56" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>59</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="409.6">
+    <row r="57" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>60</v>
       </c>
@@ -10116,7 +10115,7 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:12" ht="409.6" hidden="1">
+    <row r="58" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>61</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="371">
+    <row r="59" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>62</v>
       </c>
@@ -10185,7 +10184,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="409.6" hidden="1">
+    <row r="60" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>63</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="409.6">
+    <row r="61" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>64</v>
       </c>
@@ -10248,7 +10247,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="409.6" hidden="1">
+    <row r="62" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>65</v>
       </c>
@@ -10281,7 +10280,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="409.6" hidden="1">
+    <row r="63" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>66</v>
       </c>
@@ -10314,7 +10313,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="409.6" hidden="1">
+    <row r="64" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>67</v>
       </c>
@@ -10347,7 +10346,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="409.6">
+    <row r="65" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>68</v>
       </c>
@@ -10378,7 +10377,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="409.6">
+    <row r="66" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>69</v>
       </c>
@@ -10408,7 +10407,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="409.6">
+    <row r="67" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>70</v>
       </c>
@@ -10438,7 +10437,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="409.6" hidden="1">
+    <row r="68" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>71</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="409.6" hidden="1">
+    <row r="69" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>72</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="409.6" hidden="1">
+    <row r="70" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>73</v>
       </c>
@@ -10537,7 +10536,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="409.6" hidden="1">
+    <row r="71" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>74</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="409.6" hidden="1">
+    <row r="72" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>75</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="409.6" hidden="1">
+    <row r="73" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>76</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="409.6" hidden="1">
+    <row r="74" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>77</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="409.6">
+    <row r="75" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>78</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="409.6" hidden="1">
+    <row r="76" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>79</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="409.6" hidden="1">
+    <row r="77" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>80</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="409.6" hidden="1">
+    <row r="78" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>81</v>
       </c>
@@ -10798,7 +10797,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="409.6" hidden="1">
+    <row r="79" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>82</v>
       </c>
@@ -10831,7 +10830,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="409.6" hidden="1">
+    <row r="80" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>83</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="409.6" hidden="1">
+    <row r="81" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>84</v>
       </c>
@@ -10897,7 +10896,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="409.6" hidden="1">
+    <row r="82" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>85</v>
       </c>
@@ -10927,7 +10926,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="409.6" hidden="1">
+    <row r="83" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>86</v>
       </c>
@@ -10960,7 +10959,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="409.6" hidden="1">
+    <row r="84" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>87</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="409.6" hidden="1">
+    <row r="85" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>88</v>
       </c>
@@ -11020,7 +11019,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="409.6" hidden="1">
+    <row r="86" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>89</v>
       </c>
@@ -11050,7 +11049,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="409.6" hidden="1">
+    <row r="87" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>92</v>
       </c>
@@ -11083,7 +11082,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="409.6">
+    <row r="88" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>93</v>
       </c>
@@ -11114,7 +11113,7 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="409.6">
+    <row r="89" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>94</v>
       </c>
@@ -11144,7 +11143,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="332" hidden="1">
+    <row r="90" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>95</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="409.6" hidden="1">
+    <row r="91" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>96</v>
       </c>
@@ -11210,7 +11209,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="409.6" hidden="1">
+    <row r="92" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>97</v>
       </c>
@@ -11243,7 +11242,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="409.6">
+    <row r="93" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>98</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="409.6">
+    <row r="94" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>99</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="409.6" hidden="1">
+    <row r="95" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>100</v>
       </c>
@@ -11339,7 +11338,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="409.6">
+    <row r="96" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>101</v>
       </c>
@@ -11369,7 +11368,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="409.6" hidden="1">
+    <row r="97" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>102</v>
       </c>
@@ -11402,7 +11401,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="409.6" hidden="1">
+    <row r="98" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>103</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="409.6">
+    <row r="99" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>104</v>
       </c>
@@ -11466,7 +11465,7 @@
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="409.6" hidden="1">
+    <row r="100" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>105</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="409.6" hidden="1">
+    <row r="101" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>106</v>
       </c>
@@ -11529,7 +11528,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="182" hidden="1">
+    <row r="102" spans="1:12" ht="182" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>107</v>
       </c>
@@ -11560,7 +11559,7 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="409.6">
+    <row r="103" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>108</v>
       </c>
@@ -11590,7 +11589,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="409.6">
+    <row r="104" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>109</v>
       </c>
@@ -11623,7 +11622,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="409.6">
+    <row r="105" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>110</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="409.6" hidden="1">
+    <row r="106" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>111</v>
       </c>
@@ -11686,7 +11685,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="409.6" hidden="1">
+    <row r="107" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>112</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="409.6">
+    <row r="108" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>113</v>
       </c>
@@ -11753,7 +11752,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="409.6" hidden="1">
+    <row r="109" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>114</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="371">
+    <row r="110" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>115</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="409.6" hidden="1">
+    <row r="111" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>116</v>
       </c>
@@ -11849,7 +11848,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="409.6" hidden="1">
+    <row r="112" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>117</v>
       </c>
@@ -11882,7 +11881,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="409.6">
+    <row r="113" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>118</v>
       </c>
@@ -11912,7 +11911,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="409.6" hidden="1">
+    <row r="114" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>119</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="409.6" hidden="1">
+    <row r="115" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>120</v>
       </c>
@@ -11978,7 +11977,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="409.6" hidden="1">
+    <row r="116" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>121</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="371">
+    <row r="117" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>122</v>
       </c>
@@ -12038,7 +12037,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="409.6" hidden="1">
+    <row r="118" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>123</v>
       </c>
@@ -12071,7 +12070,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="306" hidden="1">
+    <row r="119" spans="1:12" ht="306" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>124</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="409.6">
+    <row r="120" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>125</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="409.6">
+    <row r="121" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>126</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="409.6" hidden="1">
+    <row r="122" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>127</v>
       </c>
@@ -12203,7 +12202,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="409.6">
+    <row r="123" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>128</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="345" hidden="1">
+    <row r="124" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>129</v>
       </c>
@@ -12266,7 +12265,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="409.6" hidden="1">
+    <row r="125" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>130</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="409.6" hidden="1">
+    <row r="126" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>131</v>
       </c>
@@ -12332,7 +12331,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="409.6" hidden="1">
+    <row r="127" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>132</v>
       </c>
@@ -12365,7 +12364,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="409.6" hidden="1">
+    <row r="128" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>134</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="319" hidden="1">
+    <row r="129" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>135</v>
       </c>
@@ -12428,7 +12427,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="409.6" hidden="1">
+    <row r="130" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>136</v>
       </c>
@@ -12467,7 +12466,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="384">
+    <row r="131" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>137</v>
       </c>
@@ -12497,7 +12496,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="319">
+    <row r="132" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>138</v>
       </c>
@@ -12527,7 +12526,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="409.6" hidden="1">
+    <row r="133" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>139</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="409.6" hidden="1">
+    <row r="134" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>140</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="384" hidden="1">
+    <row r="135" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>141</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="409.6" hidden="1">
+    <row r="136" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>142</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="409.6" hidden="1">
+    <row r="137" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>143</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="409.6" hidden="1">
+    <row r="138" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>144</v>
       </c>
@@ -12722,7 +12721,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="397" hidden="1">
+    <row r="139" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>146</v>
       </c>
@@ -12752,7 +12751,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="409.6" hidden="1">
+    <row r="140" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>148</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="409.6" hidden="1">
+    <row r="141" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>149</v>
       </c>
@@ -12815,7 +12814,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="409.6">
+    <row r="142" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>150</v>
       </c>
@@ -12845,7 +12844,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="409.6" hidden="1">
+    <row r="143" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>151</v>
       </c>
@@ -12878,7 +12877,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="409.6" hidden="1">
+    <row r="144" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>152</v>
       </c>
@@ -12911,7 +12910,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="409.6" hidden="1">
+    <row r="145" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>153</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="409.6" hidden="1">
+    <row r="146" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>154</v>
       </c>
@@ -12974,7 +12973,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="409.6">
+    <row r="147" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>155</v>
       </c>
@@ -13004,7 +13003,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="409.6" hidden="1">
+    <row r="148" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>156</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="409.6" hidden="1">
+    <row r="149" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>157</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="409.6" hidden="1">
+    <row r="150" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>158</v>
       </c>
@@ -13100,7 +13099,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="409.6" hidden="1">
+    <row r="151" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>159</v>
       </c>
@@ -13133,7 +13132,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="384" hidden="1">
+    <row r="152" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>160</v>
       </c>
@@ -13166,7 +13165,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="409.6" hidden="1">
+    <row r="153" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>161</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="409.6" hidden="1">
+    <row r="154" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>162</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="384">
+    <row r="155" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>163</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="409.6">
+    <row r="156" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>164</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="409.6" hidden="1">
+    <row r="157" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>165</v>
       </c>
@@ -13331,7 +13330,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="409.6" hidden="1">
+    <row r="158" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>166</v>
       </c>
@@ -13367,7 +13366,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="397">
+    <row r="159" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>167</v>
       </c>
@@ -13400,7 +13399,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="358" hidden="1">
+    <row r="160" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>168</v>
       </c>
@@ -13433,7 +13432,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="409.6" hidden="1">
+    <row r="161" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>169</v>
       </c>
@@ -13466,7 +13465,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="409.6" hidden="1">
+    <row r="162" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>170</v>
       </c>
@@ -13499,7 +13498,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="409.6" hidden="1">
+    <row r="163" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>171</v>
       </c>
@@ -13533,7 +13532,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="409.6">
+    <row r="164" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>172</v>
       </c>
@@ -13563,7 +13562,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="409.6">
+    <row r="165" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>173</v>
       </c>
@@ -13593,7 +13592,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="409.6">
+    <row r="166" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>174</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="409.6" hidden="1">
+    <row r="167" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>176</v>
       </c>
@@ -13659,7 +13658,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="409.6">
+    <row r="168" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>177</v>
       </c>
@@ -13689,7 +13688,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="409.6" hidden="1">
+    <row r="169" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>178</v>
       </c>
@@ -13722,7 +13721,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="409.6" hidden="1">
+    <row r="170" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>179</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="358" hidden="1">
+    <row r="171" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>180</v>
       </c>
@@ -13788,7 +13787,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="409.6" hidden="1">
+    <row r="172" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>181</v>
       </c>
@@ -13821,7 +13820,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="409.6" hidden="1">
+    <row r="173" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>182</v>
       </c>
@@ -13852,7 +13851,7 @@
       </c>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:12" ht="409.6" hidden="1">
+    <row r="174" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>184</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="345">
+    <row r="175" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>185</v>
       </c>
@@ -13915,7 +13914,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="409.6" hidden="1">
+    <row r="176" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>186</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="384">
+    <row r="177" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>187</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="409.6" hidden="1">
+    <row r="178" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>188</v>
       </c>
@@ -14017,7 +14016,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="409.6" hidden="1">
+    <row r="179" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>189</v>
       </c>
@@ -14053,7 +14052,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="409.6" hidden="1">
+    <row r="180" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>190</v>
       </c>
@@ -14086,7 +14085,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="384">
+    <row r="181" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>191</v>
       </c>
@@ -14116,7 +14115,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="409.6">
+    <row r="182" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>192</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="409.6" hidden="1">
+    <row r="183" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>193</v>
       </c>
@@ -14182,7 +14181,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="409.6" hidden="1">
+    <row r="184" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>194</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="409.6" hidden="1">
+    <row r="185" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>195</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="384" hidden="1">
+    <row r="186" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>196</v>
       </c>
@@ -14278,7 +14277,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="409.6">
+    <row r="187" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>197</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="409.6" hidden="1">
+    <row r="188" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>198</v>
       </c>
@@ -14341,7 +14340,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="409.6">
+    <row r="189" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>199</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="409.6">
+    <row r="190" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>200</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="345">
+    <row r="191" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>201</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="319" hidden="1">
+    <row r="192" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>203</v>
       </c>
@@ -14467,7 +14466,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="409.6" hidden="1">
+    <row r="193" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>204</v>
       </c>
@@ -14500,7 +14499,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="409.6" hidden="1">
+    <row r="194" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>205</v>
       </c>
@@ -14533,7 +14532,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="409.6" hidden="1">
+    <row r="195" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>206</v>
       </c>
@@ -14566,7 +14565,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="409.6">
+    <row r="196" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>207</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="409.6">
+    <row r="197" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>208</v>
       </c>
@@ -14632,7 +14631,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="409.6" hidden="1">
+    <row r="198" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>209</v>
       </c>
@@ -14665,7 +14664,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="409.6" hidden="1">
+    <row r="199" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>210</v>
       </c>
@@ -14695,7 +14694,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="409.6" hidden="1">
+    <row r="200" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>211</v>
       </c>
@@ -14729,7 +14728,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="409.6" hidden="1">
+    <row r="201" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>212</v>
       </c>
@@ -14762,7 +14761,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="409.6">
+    <row r="202" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>213</v>
       </c>
@@ -14792,7 +14791,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="409.6" hidden="1">
+    <row r="203" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>214</v>
       </c>
@@ -14825,7 +14824,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="409.6" hidden="1">
+    <row r="204" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>215</v>
       </c>
@@ -14859,7 +14858,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="409.6" hidden="1">
+    <row r="205" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>216</v>
       </c>
@@ -14892,7 +14891,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="319" hidden="1">
+    <row r="206" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>217</v>
       </c>
@@ -14925,7 +14924,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="358">
+    <row r="207" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>218</v>
       </c>
@@ -14956,7 +14955,7 @@
       </c>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:12" ht="384" hidden="1">
+    <row r="208" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>219</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="409.6" hidden="1">
+    <row r="209" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>221</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="280">
+    <row r="210" spans="1:12" ht="280" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>222</v>
       </c>
@@ -15052,7 +15051,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="409.6" hidden="1">
+    <row r="211" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>223</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="409.6">
+    <row r="212" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>224</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="409.6" hidden="1">
+    <row r="213" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>225</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="409.6">
+    <row r="214" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>226</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="409.6" hidden="1">
+    <row r="215" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>227</v>
       </c>
@@ -15217,7 +15216,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="409.6">
+    <row r="216" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>228</v>
       </c>
@@ -15247,7 +15246,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="409.6" hidden="1">
+    <row r="217" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>229</v>
       </c>
@@ -15280,7 +15279,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="409.6" hidden="1">
+    <row r="218" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>230</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="409.6" hidden="1">
+    <row r="219" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>231</v>
       </c>
@@ -15346,7 +15345,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="409.6">
+    <row r="220" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>232</v>
       </c>
@@ -15380,7 +15379,7 @@
       </c>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:12" ht="409.6" hidden="1">
+    <row r="221" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>233</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="409.6" hidden="1">
+    <row r="222" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>234</v>
       </c>
@@ -15446,7 +15445,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="371" hidden="1">
+    <row r="223" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>235</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="409.6" hidden="1">
+    <row r="224" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>236</v>
       </c>
@@ -15509,7 +15508,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="409.6">
+    <row r="225" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>237</v>
       </c>
@@ -15539,7 +15538,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="409.6" hidden="1">
+    <row r="226" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>238</v>
       </c>
@@ -15572,7 +15571,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="409.6" hidden="1">
+    <row r="227" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>239</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="409.6">
+    <row r="228" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>240</v>
       </c>
@@ -15638,7 +15637,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="384" hidden="1">
+    <row r="229" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>241</v>
       </c>
@@ -15672,7 +15671,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="409.6">
+    <row r="230" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>242</v>
       </c>
@@ -15702,7 +15701,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="409.6">
+    <row r="231" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>243</v>
       </c>
@@ -15732,7 +15731,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="384" hidden="1">
+    <row r="232" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>244</v>
       </c>
@@ -15765,7 +15764,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="345">
+    <row r="233" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>245</v>
       </c>
@@ -15798,7 +15797,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="409.6" hidden="1">
+    <row r="234" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>246</v>
       </c>
@@ -15828,7 +15827,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="345">
+    <row r="235" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>247</v>
       </c>
@@ -15858,7 +15857,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="371" hidden="1">
+    <row r="236" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>249</v>
       </c>
@@ -15888,7 +15887,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="397">
+    <row r="237" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>250</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="409.6" hidden="1">
+    <row r="238" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>252</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="409.6" hidden="1">
+    <row r="239" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>253</v>
       </c>
@@ -15984,7 +15983,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="409.6" hidden="1">
+    <row r="240" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>254</v>
       </c>
@@ -16017,7 +16016,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="409.6" hidden="1">
+    <row r="241" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>255</v>
       </c>
@@ -16050,7 +16049,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="409.6" hidden="1">
+    <row r="242" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>256</v>
       </c>
@@ -16084,7 +16083,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="409.6" hidden="1">
+    <row r="243" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>257</v>
       </c>
@@ -16117,7 +16116,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="409.6">
+    <row r="244" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>258</v>
       </c>
@@ -16147,7 +16146,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="409.6" hidden="1">
+    <row r="245" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>259</v>
       </c>
@@ -16180,7 +16179,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="409.6" hidden="1">
+    <row r="246" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>260</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="409.6" hidden="1">
+    <row r="247" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>261</v>
       </c>
@@ -16246,7 +16245,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="409.6" hidden="1">
+    <row r="248" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>262</v>
       </c>
@@ -16279,7 +16278,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="409.6" hidden="1">
+    <row r="249" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>264</v>
       </c>
@@ -16312,7 +16311,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="409.6">
+    <row r="250" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>266</v>
       </c>
@@ -16348,7 +16347,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="345" hidden="1">
+    <row r="251" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>267</v>
       </c>
@@ -16378,7 +16377,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="409.6" hidden="1">
+    <row r="252" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>268</v>
       </c>
@@ -16408,7 +16407,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="345">
+    <row r="253" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>269</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="409.6">
+    <row r="254" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>270</v>
       </c>
@@ -16474,7 +16473,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="409.6" hidden="1">
+    <row r="255" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>271</v>
       </c>
@@ -16507,7 +16506,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="409.6" hidden="1">
+    <row r="256" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>272</v>
       </c>
@@ -16543,7 +16542,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="224" hidden="1">
+    <row r="257" spans="1:12" ht="224" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>273</v>
       </c>
@@ -16575,7 +16574,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="409.6" hidden="1">
+    <row r="258" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>274</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="409.6">
+    <row r="259" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>275</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="409.6" hidden="1">
+    <row r="260" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>276</v>
       </c>
@@ -16677,7 +16676,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="409.6">
+    <row r="261" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>277</v>
       </c>
@@ -16706,7 +16705,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="409.6">
+    <row r="262" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>278</v>
       </c>
@@ -16736,7 +16735,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="409.6" hidden="1">
+    <row r="263" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>279</v>
       </c>
@@ -16772,7 +16771,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="409.6" hidden="1">
+    <row r="264" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>281</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="409.6" hidden="1">
+    <row r="265" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>282</v>
       </c>
@@ -16837,7 +16836,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="409.6" hidden="1">
+    <row r="266" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>283</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="409.6" hidden="1">
+    <row r="267" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>284</v>
       </c>
@@ -16903,7 +16902,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="409.6" hidden="1">
+    <row r="268" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>285</v>
       </c>
@@ -16935,7 +16934,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="409.6" hidden="1">
+    <row r="269" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>286</v>
       </c>
@@ -16967,7 +16966,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="409.6" hidden="1">
+    <row r="270" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>287</v>
       </c>
@@ -17000,7 +16999,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="409.6" hidden="1">
+    <row r="271" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>288</v>
       </c>
@@ -17033,7 +17032,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="409.6" hidden="1">
+    <row r="272" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>289</v>
       </c>
@@ -17065,7 +17064,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="409.6" hidden="1">
+    <row r="273" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>290</v>
       </c>
@@ -17097,7 +17096,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="224">
+    <row r="274" spans="1:12" ht="224" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>291</v>
       </c>
@@ -17127,7 +17126,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="409.6" hidden="1">
+    <row r="275" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>292</v>
       </c>
@@ -17160,7 +17159,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="409.6" hidden="1">
+    <row r="276" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>293</v>
       </c>
@@ -17193,7 +17192,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="409.6" hidden="1">
+    <row r="277" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>294</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="409.6" hidden="1">
+    <row r="278" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>295</v>
       </c>
@@ -17259,7 +17258,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="409.6" hidden="1">
+    <row r="279" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>296</v>
       </c>
@@ -17292,7 +17291,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="345">
+    <row r="280" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>297</v>
       </c>
@@ -17328,7 +17327,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="409.6" hidden="1">
+    <row r="281" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>298</v>
       </c>
@@ -17364,7 +17363,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="332" hidden="1">
+    <row r="282" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>299</v>
       </c>
@@ -17397,7 +17396,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="409.6">
+    <row r="283" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>301</v>
       </c>
@@ -17427,7 +17426,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="409.6">
+    <row r="284" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>302</v>
       </c>
@@ -17457,7 +17456,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="409.6">
+    <row r="285" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>303</v>
       </c>
@@ -17488,7 +17487,7 @@
       </c>
       <c r="J285" s="2"/>
     </row>
-    <row r="286" spans="1:12" ht="409.6" hidden="1">
+    <row r="286" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>304</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="409.6" hidden="1">
+    <row r="287" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>305</v>
       </c>
@@ -17554,7 +17553,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="409.6" hidden="1">
+    <row r="288" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>306</v>
       </c>
@@ -17587,7 +17586,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="409.6">
+    <row r="289" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>307</v>
       </c>
@@ -17617,7 +17616,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="409.6" hidden="1">
+    <row r="290" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>308</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="409.6">
+    <row r="291" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>309</v>
       </c>
@@ -17681,7 +17680,7 @@
       </c>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="1:12" ht="409.6" hidden="1">
+    <row r="292" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>310</v>
       </c>
@@ -17714,7 +17713,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="409.6">
+    <row r="293" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>311</v>
       </c>
@@ -17747,7 +17746,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="409.6" hidden="1">
+    <row r="294" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>312</v>
       </c>
@@ -17777,7 +17776,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="409.6" hidden="1">
+    <row r="295" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>313</v>
       </c>
@@ -17810,7 +17809,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="409.6" hidden="1">
+    <row r="296" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>314</v>
       </c>
@@ -17843,7 +17842,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="409.6" hidden="1">
+    <row r="297" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>315</v>
       </c>
@@ -17876,7 +17875,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="409.6" hidden="1">
+    <row r="298" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>316</v>
       </c>
@@ -17909,7 +17908,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="397">
+    <row r="299" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>317</v>
       </c>
@@ -17939,7 +17938,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="409.6" hidden="1">
+    <row r="300" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>318</v>
       </c>
@@ -17972,7 +17971,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="409.6" hidden="1">
+    <row r="301" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>319</v>
       </c>
@@ -18005,7 +18004,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="280">
+    <row r="302" spans="1:12" ht="280" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>320</v>
       </c>
@@ -18036,7 +18035,7 @@
       </c>
       <c r="J302" s="2"/>
     </row>
-    <row r="303" spans="1:12" ht="409.6">
+    <row r="303" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>321</v>
       </c>
@@ -18066,7 +18065,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="409.6" hidden="1">
+    <row r="304" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>322</v>
       </c>
@@ -18102,7 +18101,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="409.6" hidden="1">
+    <row r="305" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>323</v>
       </c>
@@ -18135,7 +18134,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="409.6" hidden="1">
+    <row r="306" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>324</v>
       </c>
@@ -18168,7 +18167,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="409.6" hidden="1">
+    <row r="307" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>325</v>
       </c>
@@ -18201,7 +18200,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="409.6" hidden="1">
+    <row r="308" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>326</v>
       </c>
@@ -18234,7 +18233,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="409.6" hidden="1">
+    <row r="309" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>327</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="409.6" hidden="1">
+    <row r="310" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>328</v>
       </c>
@@ -18303,7 +18302,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="409.6" hidden="1">
+    <row r="311" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>329</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="409.6">
+    <row r="312" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>330</v>
       </c>
@@ -18363,7 +18362,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="409.6" hidden="1">
+    <row r="313" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>333</v>
       </c>
@@ -18393,7 +18392,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="409.6">
+    <row r="314" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>334</v>
       </c>
@@ -18423,7 +18422,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="409.6">
+    <row r="315" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>335</v>
       </c>
@@ -18453,7 +18452,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="409.6" hidden="1">
+    <row r="316" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>336</v>
       </c>
@@ -18486,7 +18485,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="409.6" hidden="1">
+    <row r="317" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>337</v>
       </c>
@@ -18519,7 +18518,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="280" hidden="1">
+    <row r="318" spans="1:12" ht="280" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>338</v>
       </c>
@@ -18549,7 +18548,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="409.6">
+    <row r="319" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>339</v>
       </c>
@@ -18579,7 +18578,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="409.6" hidden="1">
+    <row r="320" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>340</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="409.6" hidden="1">
+    <row r="321" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>341</v>
       </c>
@@ -18645,7 +18644,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="409.6" hidden="1">
+    <row r="322" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>342</v>
       </c>
@@ -18678,7 +18677,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="409.6" hidden="1">
+    <row r="323" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>343</v>
       </c>
@@ -18711,7 +18710,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="409.6" hidden="1">
+    <row r="324" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>344</v>
       </c>
@@ -18741,7 +18740,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="409.6" hidden="1">
+    <row r="325" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>346</v>
       </c>
@@ -18771,7 +18770,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="332">
+    <row r="326" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>347</v>
       </c>
@@ -18801,7 +18800,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="409.6" hidden="1">
+    <row r="327" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>348</v>
       </c>
@@ -18834,7 +18833,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="409.6" hidden="1">
+    <row r="328" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>350</v>
       </c>
@@ -18867,7 +18866,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="409.6">
+    <row r="329" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>351</v>
       </c>
@@ -18897,7 +18896,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="306">
+    <row r="330" spans="1:12" ht="306" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>352</v>
       </c>
@@ -18927,7 +18926,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="409.6" hidden="1">
+    <row r="331" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>353</v>
       </c>
@@ -18960,7 +18959,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="409.6" hidden="1">
+    <row r="332" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>354</v>
       </c>
@@ -18993,7 +18992,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="409.6" hidden="1">
+    <row r="333" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>355</v>
       </c>
@@ -19026,7 +19025,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="409.6" hidden="1">
+    <row r="334" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>356</v>
       </c>
@@ -19062,7 +19061,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="409.6" hidden="1">
+    <row r="335" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>357</v>
       </c>
@@ -19095,7 +19094,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="409.6" hidden="1">
+    <row r="336" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>358</v>
       </c>
@@ -19128,7 +19127,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="409.6" hidden="1">
+    <row r="337" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>360</v>
       </c>
@@ -19161,7 +19160,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="409.6" hidden="1">
+    <row r="338" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>361</v>
       </c>
@@ -19194,7 +19193,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="280" hidden="1">
+    <row r="339" spans="1:12" ht="280" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>362</v>
       </c>
@@ -19227,7 +19226,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="409.6" hidden="1">
+    <row r="340" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>363</v>
       </c>
@@ -19257,7 +19256,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="409.6" hidden="1">
+    <row r="341" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>366</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="409.6" hidden="1">
+    <row r="342" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>367</v>
       </c>
@@ -19323,7 +19322,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="409.6" hidden="1">
+    <row r="343" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>368</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="409.6" hidden="1">
+    <row r="344" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>370</v>
       </c>
@@ -19389,7 +19388,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="409.6" hidden="1">
+    <row r="345" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>371</v>
       </c>
@@ -19422,7 +19421,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="409.6">
+    <row r="346" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>372</v>
       </c>
@@ -19453,7 +19452,7 @@
       </c>
       <c r="J346" s="2"/>
     </row>
-    <row r="347" spans="1:12" ht="409.6" hidden="1">
+    <row r="347" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>373</v>
       </c>
@@ -19486,7 +19485,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="409.6">
+    <row r="348" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>375</v>
       </c>
@@ -19516,7 +19515,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="409.6" hidden="1">
+    <row r="349" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>377</v>
       </c>
@@ -19549,7 +19548,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="319" hidden="1">
+    <row r="350" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>380</v>
       </c>
@@ -19579,7 +19578,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="345" hidden="1">
+    <row r="351" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>381</v>
       </c>
@@ -19609,7 +19608,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="409.6">
+    <row r="352" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>382</v>
       </c>
@@ -19639,7 +19638,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="409.6" hidden="1">
+    <row r="353" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>383</v>
       </c>
@@ -19672,7 +19671,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="409.6" hidden="1">
+    <row r="354" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>384</v>
       </c>
@@ -19705,7 +19704,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="409.6" hidden="1">
+    <row r="355" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>385</v>
       </c>
@@ -19738,7 +19737,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="409.6" hidden="1">
+    <row r="356" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>386</v>
       </c>
@@ -19771,7 +19770,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="358" hidden="1">
+    <row r="357" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>387</v>
       </c>
@@ -19804,7 +19803,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="409.6" hidden="1">
+    <row r="358" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>389</v>
       </c>
@@ -19837,7 +19836,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="306">
+    <row r="359" spans="1:12" ht="306" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>390</v>
       </c>
@@ -19867,7 +19866,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="409.6" hidden="1">
+    <row r="360" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>391</v>
       </c>
@@ -19900,7 +19899,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="409.6" hidden="1">
+    <row r="361" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>392</v>
       </c>
@@ -19933,7 +19932,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="409.6" hidden="1">
+    <row r="362" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>393</v>
       </c>
@@ -19963,7 +19962,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="409.6" hidden="1">
+    <row r="363" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>394</v>
       </c>
@@ -19997,7 +19996,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="409.6">
+    <row r="364" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>395</v>
       </c>
@@ -20027,7 +20026,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="409.6" hidden="1">
+    <row r="365" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>396</v>
       </c>
@@ -20057,7 +20056,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="409.6" hidden="1">
+    <row r="366" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>397</v>
       </c>
@@ -20090,7 +20089,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="384">
+    <row r="367" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>398</v>
       </c>
@@ -20120,7 +20119,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="409.6" hidden="1">
+    <row r="368" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>400</v>
       </c>
@@ -20153,7 +20152,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="409.6" hidden="1">
+    <row r="369" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>401</v>
       </c>
@@ -20186,7 +20185,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="409.6" hidden="1">
+    <row r="370" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>402</v>
       </c>
@@ -20219,7 +20218,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="409.6" hidden="1">
+    <row r="371" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>403</v>
       </c>
@@ -20255,7 +20254,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="409.6" hidden="1">
+    <row r="372" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>404</v>
       </c>
@@ -20288,7 +20287,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="409.6" hidden="1">
+    <row r="373" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>405</v>
       </c>
@@ -20321,7 +20320,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="409.6" hidden="1">
+    <row r="374" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>406</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="409.6" hidden="1">
+    <row r="375" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>407</v>
       </c>
@@ -20390,7 +20389,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="409.6" hidden="1">
+    <row r="376" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>408</v>
       </c>
@@ -20423,7 +20422,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="409.6" hidden="1">
+    <row r="377" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>409</v>
       </c>
@@ -20453,7 +20452,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="409.6" hidden="1">
+    <row r="378" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>411</v>
       </c>
@@ -20486,7 +20485,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="409.6" hidden="1">
+    <row r="379" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>412</v>
       </c>
@@ -20520,7 +20519,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="409.6">
+    <row r="380" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>414</v>
       </c>
@@ -20550,7 +20549,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="409.6">
+    <row r="381" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>416</v>
       </c>
@@ -20580,7 +20579,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="371">
+    <row r="382" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>417</v>
       </c>
@@ -20610,7 +20609,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="409.6">
+    <row r="383" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>418</v>
       </c>
@@ -20640,7 +20639,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="409.6" hidden="1">
+    <row r="384" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>419</v>
       </c>
@@ -20673,7 +20672,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="409.6" hidden="1">
+    <row r="385" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>420</v>
       </c>
@@ -20706,7 +20705,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="409.6" hidden="1">
+    <row r="386" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>421</v>
       </c>
@@ -20739,7 +20738,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="409.6" hidden="1">
+    <row r="387" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>422</v>
       </c>
@@ -20772,7 +20771,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="409.6" hidden="1">
+    <row r="388" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>423</v>
       </c>
@@ -20805,7 +20804,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="409.6" hidden="1">
+    <row r="389" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>424</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="409.6" hidden="1">
+    <row r="390" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>425</v>
       </c>
@@ -20869,7 +20868,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="332" hidden="1">
+    <row r="391" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>426</v>
       </c>
@@ -20902,7 +20901,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="397" hidden="1">
+    <row r="392" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>427</v>
       </c>
@@ -20935,7 +20934,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="409.6" hidden="1">
+    <row r="393" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>428</v>
       </c>
@@ -20969,7 +20968,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="409.6" hidden="1">
+    <row r="394" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>429</v>
       </c>
@@ -20999,7 +20998,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="409.6">
+    <row r="395" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>430</v>
       </c>
@@ -21033,7 +21032,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="409.6" hidden="1">
+    <row r="396" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>431</v>
       </c>
@@ -21066,7 +21065,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="409.6">
+    <row r="397" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>432</v>
       </c>
@@ -21097,7 +21096,7 @@
       </c>
       <c r="J397" s="2"/>
     </row>
-    <row r="398" spans="1:12" ht="409.6" hidden="1">
+    <row r="398" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>433</v>
       </c>
@@ -21130,7 +21129,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="399" spans="1:12" ht="409.6">
+    <row r="399" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>434</v>
       </c>
@@ -21163,7 +21162,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="400" spans="1:12" ht="409.6" hidden="1">
+    <row r="400" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>435</v>
       </c>
@@ -21196,7 +21195,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="401" spans="1:12" ht="409.6" hidden="1">
+    <row r="401" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>436</v>
       </c>
@@ -21229,7 +21228,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="402" spans="1:12" ht="319">
+    <row r="402" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>437</v>
       </c>
@@ -21259,7 +21258,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="403" spans="1:12" ht="409.6" hidden="1">
+    <row r="403" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>438</v>
       </c>
@@ -21292,7 +21291,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="404" spans="1:12" ht="409.6" hidden="1">
+    <row r="404" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>439</v>
       </c>
@@ -21325,7 +21324,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="405" spans="1:12" ht="397">
+    <row r="405" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>440</v>
       </c>
@@ -21355,7 +21354,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="406" spans="1:12" ht="409.6" hidden="1">
+    <row r="406" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>441</v>
       </c>
@@ -21391,7 +21390,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="407" spans="1:12" ht="409.6" hidden="1">
+    <row r="407" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>442</v>
       </c>
@@ -21424,7 +21423,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="408" spans="1:12" ht="409.6">
+    <row r="408" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>443</v>
       </c>
@@ -21454,7 +21453,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="409" spans="1:12" ht="409.6" hidden="1">
+    <row r="409" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>444</v>
       </c>
@@ -21487,7 +21486,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="410" spans="1:12" ht="409.6">
+    <row r="410" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>445</v>
       </c>
@@ -21523,7 +21522,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="411" spans="1:12" ht="409.6">
+    <row r="411" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>446</v>
       </c>
@@ -21553,7 +21552,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="412" spans="1:12" ht="409.6" hidden="1">
+    <row r="412" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>447</v>
       </c>
@@ -21583,7 +21582,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="413" spans="1:12" ht="266" hidden="1">
+    <row r="413" spans="1:12" ht="266" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>448</v>
       </c>
@@ -21616,7 +21615,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="414" spans="1:12" ht="409.6" hidden="1">
+    <row r="414" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>449</v>
       </c>
@@ -21649,7 +21648,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="415" spans="1:12" ht="409.6" hidden="1">
+    <row r="415" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>450</v>
       </c>
@@ -21682,7 +21681,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="416" spans="1:12" ht="409.6" hidden="1">
+    <row r="416" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>451</v>
       </c>
@@ -21712,7 +21711,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="409.6">
+    <row r="417" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>452</v>
       </c>
@@ -21743,7 +21742,7 @@
       </c>
       <c r="J417" s="2"/>
     </row>
-    <row r="418" spans="1:12" ht="409.6">
+    <row r="418" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>453</v>
       </c>
@@ -21777,7 +21776,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="419" spans="1:12" ht="409.6">
+    <row r="419" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>454</v>
       </c>
@@ -21808,7 +21807,7 @@
       </c>
       <c r="J419" s="2"/>
     </row>
-    <row r="420" spans="1:12" ht="409.6">
+    <row r="420" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>455</v>
       </c>
@@ -21838,7 +21837,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="421" spans="1:12" ht="409.6" hidden="1">
+    <row r="421" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>456</v>
       </c>
@@ -21871,7 +21870,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="409.6">
+    <row r="422" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>457</v>
       </c>
@@ -21901,7 +21900,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="423" spans="1:12" ht="409.6" hidden="1">
+    <row r="423" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>458</v>
       </c>
@@ -21934,7 +21933,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="424" spans="1:12" ht="409.6">
+    <row r="424" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>459</v>
       </c>
@@ -21968,7 +21967,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="425" spans="1:12" ht="371" hidden="1">
+    <row r="425" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>461</v>
       </c>
@@ -22001,7 +22000,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="426" spans="1:12" ht="371" hidden="1">
+    <row r="426" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>462</v>
       </c>
@@ -22034,7 +22033,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="427" spans="1:12" ht="384" hidden="1">
+    <row r="427" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>463</v>
       </c>
@@ -22067,7 +22066,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="428" spans="1:12" ht="293" hidden="1">
+    <row r="428" spans="1:12" ht="293" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>464</v>
       </c>
@@ -22097,7 +22096,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="429" spans="1:12" ht="293">
+    <row r="429" spans="1:12" ht="293" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>465</v>
       </c>
@@ -22127,7 +22126,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="430" spans="1:12" ht="409.6">
+    <row r="430" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>466</v>
       </c>
@@ -22160,7 +22159,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="431" spans="1:12" ht="409.6" hidden="1">
+    <row r="431" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>467</v>
       </c>
@@ -22190,7 +22189,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="432" spans="1:12" ht="409.6" hidden="1">
+    <row r="432" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>468</v>
       </c>
@@ -22223,7 +22222,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="371">
+    <row r="433" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>469</v>
       </c>
@@ -22253,7 +22252,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="293">
+    <row r="434" spans="1:12" ht="293" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>470</v>
       </c>
@@ -22283,7 +22282,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="435" spans="1:12" ht="409.6" hidden="1">
+    <row r="435" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>471</v>
       </c>
@@ -22316,7 +22315,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="409.6" hidden="1">
+    <row r="436" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>472</v>
       </c>
@@ -22349,7 +22348,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="409.6" hidden="1">
+    <row r="437" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>474</v>
       </c>
@@ -22382,7 +22381,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="438" spans="1:12" ht="409.6" hidden="1">
+    <row r="438" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>475</v>
       </c>
@@ -22415,7 +22414,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="439" spans="1:12" ht="409.6">
+    <row r="439" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>476</v>
       </c>
@@ -22451,7 +22450,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="409.6" hidden="1">
+    <row r="440" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>477</v>
       </c>
@@ -22484,7 +22483,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="409.6">
+    <row r="441" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>479</v>
       </c>
@@ -22514,7 +22513,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="442" spans="1:12" ht="409.6">
+    <row r="442" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>480</v>
       </c>
@@ -22544,7 +22543,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="443" spans="1:12" ht="371" hidden="1">
+    <row r="443" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>481</v>
       </c>
@@ -22577,7 +22576,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="409.6" hidden="1">
+    <row r="444" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>482</v>
       </c>
@@ -22610,7 +22609,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="445" spans="1:12" ht="345" hidden="1">
+    <row r="445" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>484</v>
       </c>
@@ -22644,7 +22643,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="446" spans="1:12" ht="371" hidden="1">
+    <row r="446" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>485</v>
       </c>
@@ -22677,7 +22676,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="409.6" hidden="1">
+    <row r="447" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>486</v>
       </c>
@@ -22710,7 +22709,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="409.6">
+    <row r="448" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>489</v>
       </c>
@@ -22740,7 +22739,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="409.6">
+    <row r="449" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>490</v>
       </c>
@@ -22771,7 +22770,7 @@
       </c>
       <c r="J449" s="2"/>
     </row>
-    <row r="450" spans="1:12" ht="358" hidden="1">
+    <row r="450" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A450">
         <v>491</v>
       </c>
@@ -22801,7 +22800,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="409.6" hidden="1">
+    <row r="451" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A451">
         <v>492</v>
       </c>
@@ -22833,7 +22832,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="409.6">
+    <row r="452" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>493</v>
       </c>
@@ -22862,7 +22861,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="384">
+    <row r="453" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>494</v>
       </c>
@@ -22892,7 +22891,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="409.6" hidden="1">
+    <row r="454" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>495</v>
       </c>
@@ -22925,7 +22924,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="266">
+    <row r="455" spans="1:12" ht="266" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>496</v>
       </c>
@@ -22955,7 +22954,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="409.6" hidden="1">
+    <row r="456" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>497</v>
       </c>
@@ -22988,7 +22987,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="409.6">
+    <row r="457" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>498</v>
       </c>
@@ -23018,7 +23017,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="409.6" hidden="1">
+    <row r="458" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>499</v>
       </c>
@@ -23050,7 +23049,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="409.6" hidden="1">
+    <row r="459" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>500</v>
       </c>
@@ -23083,7 +23082,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="409.6" hidden="1">
+    <row r="460" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>502</v>
       </c>
@@ -23116,7 +23115,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="409.6" hidden="1">
+    <row r="461" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A461">
         <v>503</v>
       </c>
@@ -23149,7 +23148,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="409.6">
+    <row r="462" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A462">
         <v>504</v>
       </c>
@@ -23179,7 +23178,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="409.6" hidden="1">
+    <row r="463" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A463">
         <v>505</v>
       </c>
@@ -23212,7 +23211,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="464" spans="1:12" ht="409.6" hidden="1">
+    <row r="464" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>506</v>
       </c>
@@ -23246,7 +23245,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="371" hidden="1">
+    <row r="465" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>507</v>
       </c>
@@ -23276,7 +23275,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="409.6" hidden="1">
+    <row r="466" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>508</v>
       </c>
@@ -23310,7 +23309,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="409.6" hidden="1">
+    <row r="467" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>509</v>
       </c>
@@ -23343,7 +23342,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="409.6">
+    <row r="468" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>510</v>
       </c>
@@ -23373,7 +23372,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="397" hidden="1">
+    <row r="469" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>511</v>
       </c>
@@ -23406,7 +23405,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="397">
+    <row r="470" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>512</v>
       </c>
@@ -23436,7 +23435,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="409.6" hidden="1">
+    <row r="471" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>514</v>
       </c>
@@ -23466,7 +23465,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="409.6">
+    <row r="472" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>517</v>
       </c>
@@ -23496,7 +23495,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="409.6" hidden="1">
+    <row r="473" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>518</v>
       </c>
@@ -23529,7 +23528,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="409.6" hidden="1">
+    <row r="474" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>519</v>
       </c>
@@ -23562,7 +23561,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="409.6">
+    <row r="475" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>520</v>
       </c>
@@ -23593,7 +23592,7 @@
       </c>
       <c r="J475" s="2"/>
     </row>
-    <row r="476" spans="1:12" ht="345">
+    <row r="476" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>522</v>
       </c>
@@ -23629,7 +23628,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="409.6" hidden="1">
+    <row r="477" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>523</v>
       </c>
@@ -23662,7 +23661,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="409.6">
+    <row r="478" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>524</v>
       </c>
@@ -23692,7 +23691,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="409.6" hidden="1">
+    <row r="479" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>525</v>
       </c>
@@ -23725,7 +23724,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="409.6" hidden="1">
+    <row r="480" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>526</v>
       </c>
@@ -23755,7 +23754,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="409.6" hidden="1">
+    <row r="481" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>530</v>
       </c>
@@ -23788,7 +23787,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="293">
+    <row r="482" spans="1:12" ht="293" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>531</v>
       </c>
@@ -23824,7 +23823,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="409.6">
+    <row r="483" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>532</v>
       </c>
@@ -23854,7 +23853,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="409.6" hidden="1">
+    <row r="484" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>533</v>
       </c>
@@ -23887,7 +23886,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="409.6" hidden="1">
+    <row r="485" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>535</v>
       </c>
@@ -23917,7 +23916,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="409.6" hidden="1">
+    <row r="486" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>536</v>
       </c>
@@ -23950,7 +23949,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="409.6" hidden="1">
+    <row r="487" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>538</v>
       </c>
@@ -23979,7 +23978,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="319" hidden="1">
+    <row r="488" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>540</v>
       </c>
@@ -24009,7 +24008,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="409.6" hidden="1">
+    <row r="489" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>541</v>
       </c>
@@ -24038,7 +24037,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="332">
+    <row r="490" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>542</v>
       </c>
@@ -24068,7 +24067,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="409.6" hidden="1">
+    <row r="491" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>543</v>
       </c>
@@ -24101,7 +24100,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="409.6">
+    <row r="492" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>544</v>
       </c>
@@ -24131,7 +24130,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="384">
+    <row r="493" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>545</v>
       </c>
@@ -24162,7 +24161,7 @@
       </c>
       <c r="J493" s="2"/>
     </row>
-    <row r="494" spans="1:12" ht="409.6">
+    <row r="494" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>546</v>
       </c>
@@ -24198,7 +24197,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="409.6" hidden="1">
+    <row r="495" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>547</v>
       </c>
@@ -24228,7 +24227,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="345" hidden="1">
+    <row r="496" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>548</v>
       </c>
@@ -24259,7 +24258,7 @@
       </c>
       <c r="J496" s="2"/>
     </row>
-    <row r="497" spans="1:12" ht="409.6">
+    <row r="497" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>550</v>
       </c>
@@ -24289,7 +24288,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="498" spans="1:12" ht="409.6" hidden="1">
+    <row r="498" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>551</v>
       </c>
@@ -24322,7 +24321,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="409.6" hidden="1">
+    <row r="499" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>552</v>
       </c>
@@ -24355,7 +24354,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="409.6" hidden="1">
+    <row r="500" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>553</v>
       </c>
@@ -24391,7 +24390,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="409.6">
+    <row r="501" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>554</v>
       </c>
@@ -24421,7 +24420,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="502" spans="1:12" ht="409.6" hidden="1">
+    <row r="502" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>555</v>
       </c>
@@ -24454,7 +24453,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="409.6">
+    <row r="503" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>556</v>
       </c>
@@ -24484,7 +24483,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="358" hidden="1">
+    <row r="504" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>558</v>
       </c>
@@ -24516,7 +24515,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="505" spans="1:12" ht="384" hidden="1">
+    <row r="505" spans="1:12" ht="384" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>559</v>
       </c>
@@ -24549,7 +24548,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="506" spans="1:12" ht="409.6">
+    <row r="506" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>560</v>
       </c>
@@ -24579,7 +24578,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="507" spans="1:12" ht="409.6" hidden="1">
+    <row r="507" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>561</v>
       </c>
@@ -24612,7 +24611,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="508" spans="1:12" ht="409.6">
+    <row r="508" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>562</v>
       </c>
@@ -24642,7 +24641,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="509" spans="1:12" ht="409.6" hidden="1">
+    <row r="509" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>563</v>
       </c>
@@ -24675,7 +24674,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="510" spans="1:12" ht="409.6" hidden="1">
+    <row r="510" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A510">
         <v>564</v>
       </c>
@@ -24708,7 +24707,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="511" spans="1:12" ht="409.6" hidden="1">
+    <row r="511" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>566</v>
       </c>
@@ -24741,7 +24740,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="512" spans="1:12" ht="409.6" hidden="1">
+    <row r="512" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>567</v>
       </c>
@@ -24774,7 +24773,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="409.6">
+    <row r="513" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>568</v>
       </c>
@@ -24804,7 +24803,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="409.6" hidden="1">
+    <row r="514" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>569</v>
       </c>
@@ -24837,7 +24836,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="409.6" hidden="1">
+    <row r="515" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>570</v>
       </c>
@@ -24870,7 +24869,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="516" spans="1:12" ht="409.6" hidden="1">
+    <row r="516" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>571</v>
       </c>
@@ -24903,7 +24902,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="517" spans="1:12" ht="409.6" hidden="1">
+    <row r="517" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>573</v>
       </c>
@@ -24933,7 +24932,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="518" spans="1:12" ht="409.6" hidden="1">
+    <row r="518" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>574</v>
       </c>
@@ -24966,7 +24965,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="519" spans="1:12" ht="358">
+    <row r="519" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>575</v>
       </c>
@@ -25002,7 +25001,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="520" spans="1:12" ht="409.6" hidden="1">
+    <row r="520" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>576</v>
       </c>
@@ -25035,7 +25034,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="521" spans="1:12" ht="409.6">
+    <row r="521" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>577</v>
       </c>
@@ -25065,7 +25064,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="409.6" hidden="1">
+    <row r="522" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>578</v>
       </c>
@@ -25098,7 +25097,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="523" spans="1:12" ht="409.6" hidden="1">
+    <row r="523" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>579</v>
       </c>
@@ -25131,7 +25130,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="524" spans="1:12" ht="409.6" hidden="1">
+    <row r="524" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>581</v>
       </c>
@@ -25164,7 +25163,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="525" spans="1:12" ht="409.6">
+    <row r="525" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>582</v>
       </c>
@@ -25194,7 +25193,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="526" spans="1:12" ht="409.6">
+    <row r="526" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>583</v>
       </c>
@@ -25223,7 +25222,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="409.6" hidden="1">
+    <row r="527" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>587</v>
       </c>
@@ -25256,7 +25255,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="528" spans="1:12" ht="332" hidden="1">
+    <row r="528" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>588</v>
       </c>
@@ -25289,7 +25288,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="409.6" hidden="1">
+    <row r="529" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>589</v>
       </c>
@@ -25322,7 +25321,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="409.6" hidden="1">
+    <row r="530" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>592</v>
       </c>
@@ -25355,7 +25354,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="531" spans="1:12" ht="371" hidden="1">
+    <row r="531" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>593</v>
       </c>
@@ -25385,7 +25384,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="532" spans="1:12" ht="409.6">
+    <row r="532" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>594</v>
       </c>
@@ -25415,7 +25414,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="409.6" hidden="1">
+    <row r="533" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>596</v>
       </c>
@@ -25448,7 +25447,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="534" spans="1:12" ht="306">
+    <row r="534" spans="1:12" ht="306" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>597</v>
       </c>
@@ -25478,7 +25477,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="535" spans="1:12" ht="409.6">
+    <row r="535" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>598</v>
       </c>
@@ -25509,7 +25508,7 @@
       </c>
       <c r="J535" s="2"/>
     </row>
-    <row r="536" spans="1:12" ht="409.6" hidden="1">
+    <row r="536" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>599</v>
       </c>
@@ -25542,7 +25541,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="537" spans="1:12" ht="409.6" hidden="1">
+    <row r="537" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>600</v>
       </c>
@@ -25575,7 +25574,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="538" spans="1:12" ht="371" hidden="1">
+    <row r="538" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>601</v>
       </c>
@@ -25608,7 +25607,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="539" spans="1:12" ht="409.6" hidden="1">
+    <row r="539" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>602</v>
       </c>
@@ -25641,7 +25640,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="540" spans="1:12" ht="409.6" hidden="1">
+    <row r="540" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>603</v>
       </c>
@@ -25674,7 +25673,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="541" spans="1:12" ht="409.6">
+    <row r="541" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A541">
         <v>604</v>
       </c>
@@ -25704,7 +25703,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="542" spans="1:12" ht="409.6" hidden="1">
+    <row r="542" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>605</v>
       </c>
@@ -25737,7 +25736,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="543" spans="1:12" ht="409.6" hidden="1">
+    <row r="543" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>606</v>
       </c>
@@ -25770,7 +25769,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="358" hidden="1">
+    <row r="544" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>607</v>
       </c>
@@ -25803,7 +25802,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="545" spans="1:12" ht="409.6" hidden="1">
+    <row r="545" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>608</v>
       </c>
@@ -25836,7 +25835,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="546" spans="1:12" ht="252">
+    <row r="546" spans="1:12" ht="252" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>609</v>
       </c>
@@ -25866,7 +25865,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="547" spans="1:12" ht="409.6" hidden="1">
+    <row r="547" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>612</v>
       </c>
@@ -25899,7 +25898,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="409.6">
+    <row r="548" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>613</v>
       </c>
@@ -25929,7 +25928,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="409.6" hidden="1">
+    <row r="549" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>614</v>
       </c>
@@ -25962,7 +25961,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="409.6" hidden="1">
+    <row r="550" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>615</v>
       </c>
@@ -25995,7 +25994,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="551" spans="1:12" ht="409.6">
+    <row r="551" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>616</v>
       </c>
@@ -26028,7 +26027,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="552" spans="1:12" ht="252" hidden="1">
+    <row r="552" spans="1:12" ht="252" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>617</v>
       </c>
@@ -26061,7 +26060,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="553" spans="1:12" ht="409.6" hidden="1">
+    <row r="553" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>619</v>
       </c>
@@ -26094,7 +26093,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="409.6" hidden="1">
+    <row r="554" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>621</v>
       </c>
@@ -26127,7 +26126,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="555" spans="1:12" ht="409.6">
+    <row r="555" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>623</v>
       </c>
@@ -26157,7 +26156,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="409.6" hidden="1">
+    <row r="556" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>624</v>
       </c>
@@ -26193,7 +26192,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="409.6">
+    <row r="557" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A557">
         <v>625</v>
       </c>
@@ -26223,7 +26222,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="558" spans="1:12" ht="409.6">
+    <row r="558" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>626</v>
       </c>
@@ -26253,7 +26252,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="409.6" hidden="1">
+    <row r="559" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>627</v>
       </c>
@@ -26286,7 +26285,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="560" spans="1:12" ht="409.6" hidden="1">
+    <row r="560" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>628</v>
       </c>
@@ -26316,7 +26315,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="409.6">
+    <row r="561" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>629</v>
       </c>
@@ -26346,7 +26345,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="409.6">
+    <row r="562" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>630</v>
       </c>
@@ -26376,7 +26375,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="409.6" hidden="1">
+    <row r="563" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>631</v>
       </c>
@@ -26409,7 +26408,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="409.6" hidden="1">
+    <row r="564" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>632</v>
       </c>
@@ -26442,7 +26441,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="319">
+    <row r="565" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>633</v>
       </c>
@@ -26472,7 +26471,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="566" spans="1:12" ht="409.6">
+    <row r="566" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>634</v>
       </c>
@@ -26502,7 +26501,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="371">
+    <row r="567" spans="1:12" ht="371" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>635</v>
       </c>
@@ -26532,7 +26531,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="409.6" hidden="1">
+    <row r="568" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>636</v>
       </c>
@@ -26565,7 +26564,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="409.6">
+    <row r="569" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>637</v>
       </c>
@@ -26596,7 +26595,7 @@
       </c>
       <c r="J569" s="2"/>
     </row>
-    <row r="570" spans="1:12" ht="409.6" hidden="1">
+    <row r="570" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>638</v>
       </c>
@@ -26629,7 +26628,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="571" spans="1:12" ht="409.6" hidden="1">
+    <row r="571" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>639</v>
       </c>
@@ -26662,7 +26661,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="409.6">
+    <row r="572" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>640</v>
       </c>
@@ -26692,7 +26691,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="358">
+    <row r="573" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>641</v>
       </c>
@@ -26722,7 +26721,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="409.6" hidden="1">
+    <row r="574" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>642</v>
       </c>
@@ -26756,7 +26755,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="409.6" hidden="1">
+    <row r="575" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>644</v>
       </c>
@@ -26789,7 +26788,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="409.6" hidden="1">
+    <row r="576" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>645</v>
       </c>
@@ -26822,7 +26821,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="577" spans="1:12" ht="358" hidden="1">
+    <row r="577" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>646</v>
       </c>
@@ -26852,7 +26851,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="409.6" hidden="1">
+    <row r="578" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>647</v>
       </c>
@@ -26885,7 +26884,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="579" spans="1:12" ht="409.6" hidden="1">
+    <row r="579" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>648</v>
       </c>
@@ -26918,7 +26917,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="580" spans="1:12" ht="409.6" hidden="1">
+    <row r="580" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>649</v>
       </c>
@@ -26951,7 +26950,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="581" spans="1:12" ht="409.6">
+    <row r="581" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>651</v>
       </c>
@@ -26981,7 +26980,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="582" spans="1:12" ht="332" hidden="1">
+    <row r="582" spans="1:12" ht="332" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>652</v>
       </c>
@@ -27011,7 +27010,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="409.6" hidden="1">
+    <row r="583" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>654</v>
       </c>
@@ -27044,7 +27043,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="584" spans="1:12" ht="409.6">
+    <row r="584" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>655</v>
       </c>
@@ -27074,7 +27073,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="585" spans="1:12" ht="409.6">
+    <row r="585" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>656</v>
       </c>
@@ -27104,7 +27103,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="586" spans="1:12" ht="409.6" hidden="1">
+    <row r="586" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>657</v>
       </c>
@@ -27137,7 +27136,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="587" spans="1:12" ht="409.6">
+    <row r="587" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>658</v>
       </c>
@@ -27167,7 +27166,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="588" spans="1:12" ht="397">
+    <row r="588" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>661</v>
       </c>
@@ -27197,7 +27196,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="589" spans="1:12" ht="409.6" hidden="1">
+    <row r="589" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>662</v>
       </c>
@@ -27230,7 +27229,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="409.6">
+    <row r="590" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>663</v>
       </c>
@@ -27262,7 +27261,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="591" spans="1:12" ht="397">
+    <row r="591" spans="1:12" ht="397" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>664</v>
       </c>
@@ -27292,7 +27291,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="409.6">
+    <row r="592" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>665</v>
       </c>
@@ -27322,7 +27321,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="409.6" hidden="1">
+    <row r="593" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>666</v>
       </c>
@@ -27355,7 +27354,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="594" spans="1:12" ht="358" hidden="1">
+    <row r="594" spans="1:12" ht="358" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>667</v>
       </c>
@@ -27388,7 +27387,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="595" spans="1:12" ht="409.6" hidden="1">
+    <row r="595" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>668</v>
       </c>
@@ -27421,7 +27420,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="596" spans="1:12" ht="409.6" hidden="1">
+    <row r="596" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A596">
         <v>669</v>
       </c>
@@ -27454,7 +27453,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="409.6" hidden="1">
+    <row r="597" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>670</v>
       </c>
@@ -27486,7 +27485,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="598" spans="1:12" ht="238" hidden="1">
+    <row r="598" spans="1:12" ht="238" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>672</v>
       </c>
@@ -27519,7 +27518,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="409.6" hidden="1">
+    <row r="599" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>673</v>
       </c>
@@ -27552,7 +27551,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="409.6">
+    <row r="600" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>675</v>
       </c>
@@ -27582,7 +27581,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="601" spans="1:12" ht="409.6" hidden="1">
+    <row r="601" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>676</v>
       </c>
@@ -27615,7 +27614,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="602" spans="1:12" ht="409.6" hidden="1">
+    <row r="602" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A602">
         <v>677</v>
       </c>
@@ -27648,7 +27647,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="603" spans="1:12" ht="345" hidden="1">
+    <row r="603" spans="1:12" ht="345" x14ac:dyDescent="0.15">
       <c r="A603">
         <v>678</v>
       </c>
@@ -27681,7 +27680,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="604" spans="1:12" ht="409.6" hidden="1">
+    <row r="604" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A604">
         <v>679</v>
       </c>
@@ -27714,7 +27713,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="605" spans="1:12" ht="409.6" hidden="1">
+    <row r="605" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A605">
         <v>682</v>
       </c>
@@ -27750,7 +27749,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="606" spans="1:12" ht="409.6" hidden="1">
+    <row r="606" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A606">
         <v>683</v>
       </c>
@@ -27786,7 +27785,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="607" spans="1:12" ht="409.6" hidden="1">
+    <row r="607" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A607">
         <v>684</v>
       </c>
@@ -27818,7 +27817,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="608" spans="1:12" ht="319" hidden="1">
+    <row r="608" spans="1:12" ht="319" x14ac:dyDescent="0.15">
       <c r="A608">
         <v>685</v>
       </c>
@@ -27851,7 +27850,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="609" spans="1:12" ht="409.6" hidden="1">
+    <row r="609" spans="1:12" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A609">
         <v>686</v>
       </c>
@@ -27884,13 +27883,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:K609" xr:uid="{5BF88BAF-E553-264F-851D-049800871867}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Technical"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="I1:K609" xr:uid="{5BF88BAF-E553-264F-851D-049800871867}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -27924,13 +27917,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>2606</v>
       </c>
@@ -27938,7 +27931,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2607</v>
       </c>
@@ -27946,7 +27939,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2608</v>
       </c>
@@ -27954,12 +27947,12 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2609</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2610</v>
       </c>
